--- a/crown.xlsx
+++ b/crown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="289">
   <si>
     <t xml:space="preserve">Author1</t>
   </si>
@@ -43,6 +43,27 @@
     <t xml:space="preserve">Role</t>
   </si>
   <si>
+    <t xml:space="preserve">Corporate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GND for Corporate1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate2 main name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate2 sub name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate2 part name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corporate type</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR_1</t>
   </si>
   <si>
@@ -65,6 +86,24 @@
   </si>
   <si>
     <t xml:space="preserve">Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main name, sub name, part name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Another one</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HostInstitution</t>
   </si>
   <si>
     <t xml:space="preserve">CR_1_A-H</t>
@@ -968,7 +1007,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -983,6 +1022,10 @@
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1164,10 +1207,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S1048576"/>
+  <dimension ref="A1:Z1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L26" activeCellId="0" sqref="L26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1187,10 +1230,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="20.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="27.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="28.13"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="18" style="1" width="11"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="19" min="18" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="34.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="21" style="1" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="M1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1212,2134 +1257,2185 @@
       <c r="S1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="T1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="7"/>
+      <c r="A2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8"/>
       <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>13</v>
+        <v>19</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="U2" s="1" t="n">
+        <v>12345678</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="M3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="12"/>
-      <c r="D5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>20</v>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="12"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C5" s="13"/>
+      <c r="D5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
+      <c r="E6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>24</v>
+      <c r="E7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E8" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>26</v>
+      <c r="E8" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>24</v>
+      <c r="E9" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>29</v>
+      <c r="E10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
+      <c r="E11" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>33</v>
+      <c r="E12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>33</v>
+      <c r="E13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E15" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C16" s="12"/>
-      <c r="D16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>40</v>
+      <c r="E15" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C16" s="13"/>
+      <c r="D16" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D17" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>42</v>
+      <c r="D17" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E18" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>44</v>
+      <c r="E18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
+      <c r="E19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E20" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
+      <c r="E20" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>44</v>
+      <c r="E21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E22" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>44</v>
+      <c r="E22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>44</v>
+      <c r="E23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>44</v>
+      <c r="E24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E25" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
+      <c r="E25" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="26" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D26" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E27" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>53</v>
+      <c r="D26" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E28" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12"/>
-      <c r="D29" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>57</v>
+      <c r="E28" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C29" s="13"/>
+      <c r="D29" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D30" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F30" s="7"/>
+      <c r="D30" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E31" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>61</v>
+      <c r="E31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E32" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>61</v>
+      <c r="E32" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E33" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>61</v>
+      <c r="E33" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E34" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>61</v>
+      <c r="E34" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E35" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>61</v>
+      <c r="E35" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>61</v>
+      <c r="E36" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E37" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>61</v>
+      <c r="E37" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E38" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>61</v>
+      <c r="E38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E39" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>61</v>
+      <c r="E39" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E40" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>61</v>
+      <c r="E40" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E41" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>61</v>
+      <c r="E41" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E42" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>61</v>
+      <c r="E42" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E43" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>61</v>
+      <c r="E43" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="F44" s="7" t="s">
-        <v>61</v>
-      </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E45" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>61</v>
+      <c r="E45" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E46" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>61</v>
+      <c r="E46" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E47" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>61</v>
+      <c r="E47" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E48" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>61</v>
+      <c r="E48" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E49" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>61</v>
+      <c r="E49" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E50" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>61</v>
+      <c r="E50" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E51" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>61</v>
+      <c r="E51" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E52" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F52" s="7" t="s">
-        <v>61</v>
+      <c r="E52" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E53" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>61</v>
+      <c r="E53" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E54" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>61</v>
+      <c r="E54" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E55" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>61</v>
+      <c r="E55" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E56" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>61</v>
+      <c r="E56" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E57" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>61</v>
+      <c r="E57" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E58" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="F58" s="7" t="s">
-        <v>61</v>
+      <c r="E58" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E59" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>61</v>
+      <c r="E59" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E60" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F60" s="7" t="s">
-        <v>61</v>
+      <c r="E60" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E61" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>61</v>
+      <c r="E61" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E62" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F62" s="7" t="s">
-        <v>61</v>
+      <c r="E62" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E63" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>61</v>
+      <c r="E63" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E64" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="F64" s="7" t="s">
-        <v>61</v>
+      <c r="E64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E65" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>61</v>
+      <c r="E65" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E66" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>61</v>
+      <c r="E66" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E67" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>98</v>
+      <c r="E67" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E68" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" s="7" t="s">
-        <v>98</v>
+      <c r="E68" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E69" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>98</v>
+      <c r="E69" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E70" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="F70" s="7" t="s">
-        <v>98</v>
+      <c r="E70" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D71" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E71" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="F71" s="7"/>
+      <c r="D71" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E71" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" s="8"/>
     </row>
     <row r="72" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E72" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F72" s="7" t="s">
-        <v>103</v>
+      <c r="E72" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="73" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E73" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E74" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="F74" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E75" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>103</v>
+      <c r="E73" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C76" s="14"/>
-      <c r="D76" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="E76" s="13" t="s">
-        <v>109</v>
+      <c r="C76" s="15"/>
+      <c r="D76" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C77" s="15"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>111</v>
+      <c r="C77" s="16"/>
+      <c r="D77" s="7"/>
+      <c r="E77" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C78" s="15"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>111</v>
+      <c r="C78" s="16"/>
+      <c r="D78" s="7"/>
+      <c r="E78" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C79" s="15"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>114</v>
+      <c r="C79" s="16"/>
+      <c r="D79" s="7"/>
+      <c r="E79" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C80" s="15"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>114</v>
+      <c r="C80" s="16"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F81" s="7" t="s">
-        <v>114</v>
+      <c r="C81" s="16"/>
+      <c r="D81" s="7"/>
+      <c r="E81" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C82" s="15"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F82" s="7" t="s">
-        <v>111</v>
+      <c r="C82" s="16"/>
+      <c r="D82" s="7"/>
+      <c r="E82" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C83" s="15"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>111</v>
+      <c r="C83" s="16"/>
+      <c r="D83" s="7"/>
+      <c r="E83" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C84" s="15"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="F84" s="7" t="s">
-        <v>111</v>
+      <c r="C84" s="16"/>
+      <c r="D84" s="7"/>
+      <c r="E84" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C85" s="15"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="F85" s="7" t="s">
-        <v>111</v>
+      <c r="C85" s="16"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C86" s="15"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F86" s="7" t="s">
-        <v>122</v>
+      <c r="C86" s="16"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C87" s="15"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>114</v>
+      <c r="C87" s="16"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C88" s="15"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="10" t="s">
+      <c r="C88" s="16"/>
+      <c r="D88" s="7"/>
+      <c r="E88" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C89" s="16"/>
+      <c r="D89" s="7"/>
+      <c r="E89" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C90" s="16"/>
+      <c r="D90" s="7"/>
+      <c r="E90" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C91" s="16"/>
+      <c r="D91" s="7"/>
+      <c r="E91" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C92" s="16"/>
+      <c r="D92" s="7"/>
+      <c r="E92" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C93" s="16"/>
+      <c r="D93" s="7"/>
+      <c r="E93" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="F93" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F88" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C89" s="15"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C90" s="15"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C91" s="15"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="10" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C94" s="16"/>
+      <c r="D94" s="7"/>
+      <c r="E94" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C95" s="16"/>
+      <c r="D95" s="7"/>
+      <c r="E95" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C96" s="16"/>
+      <c r="D96" s="7"/>
+      <c r="E96" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C97" s="16"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C98" s="16"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C99" s="16"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F99" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="F91" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C92" s="15"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F92" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C93" s="15"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C94" s="15"/>
-      <c r="D94" s="6"/>
-      <c r="E94" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C95" s="15"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F95" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C96" s="15"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="F96" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C97" s="15"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="F97" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C98" s="15"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C99" s="15"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="10" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C100" s="16"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="F100" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="F99" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C100" s="15"/>
-      <c r="D100" s="6"/>
-      <c r="E100" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F100" s="7" t="s">
-        <v>122</v>
-      </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C101" s="15"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>114</v>
+      <c r="C101" s="16"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C102" s="15"/>
-      <c r="D102" s="6"/>
-      <c r="E102" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F102" s="7" t="s">
-        <v>122</v>
+      <c r="C102" s="16"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C103" s="15"/>
-      <c r="D103" s="6"/>
-      <c r="E103" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>114</v>
+      <c r="C103" s="16"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C104" s="15"/>
-      <c r="D104" s="6"/>
-      <c r="E104" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F104" s="7" t="s">
-        <v>111</v>
+      <c r="C104" s="16"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15"/>
-      <c r="D105" s="6"/>
-      <c r="E105" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="F105" s="7" t="s">
-        <v>122</v>
+      <c r="C105" s="16"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C106" s="15"/>
-      <c r="D106" s="6"/>
-      <c r="E106" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>111</v>
+      <c r="C106" s="16"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C107" s="15"/>
-      <c r="D107" s="6"/>
-      <c r="E107" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="F107" s="7" t="s">
-        <v>111</v>
+      <c r="C107" s="16"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C108" s="15"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F108" s="7" t="s">
-        <v>122</v>
+      <c r="C108" s="16"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C109" s="15"/>
-      <c r="D109" s="6"/>
-      <c r="E109" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F109" s="7" t="s">
-        <v>111</v>
+      <c r="C109" s="16"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C110" s="15"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>114</v>
+      <c r="C110" s="16"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C111" s="15"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>122</v>
+      <c r="C111" s="16"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C112" s="15"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="F112" s="7" t="s">
-        <v>114</v>
+      <c r="C112" s="16"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C113" s="15"/>
-      <c r="D113" s="6"/>
-      <c r="E113" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>122</v>
+      <c r="C113" s="16"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C114" s="15"/>
-      <c r="D114" s="6"/>
-      <c r="E114" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="F114" s="7" t="s">
-        <v>114</v>
+      <c r="C114" s="16"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C115" s="15"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F115" s="7" t="s">
-        <v>111</v>
+      <c r="C115" s="16"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C116" s="15"/>
-      <c r="D116" s="6"/>
-      <c r="E116" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>122</v>
+      <c r="C116" s="16"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C117" s="15"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="F117" s="7" t="s">
-        <v>111</v>
+      <c r="C117" s="16"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C118" s="15"/>
-      <c r="D118" s="6"/>
-      <c r="E118" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="F118" s="7" t="s">
-        <v>111</v>
+      <c r="C118" s="16"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C119" s="15"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>122</v>
+      <c r="C119" s="16"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C120" s="15"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D121" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E121" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D122" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>160</v>
+      <c r="C120" s="16"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C121" s="2"/>
+      <c r="D121" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="122" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C122" s="2"/>
+      <c r="D122" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E122" s="14" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E123" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="F123" s="7" t="s">
-        <v>162</v>
+      <c r="E123" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E124" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="F124" s="7" t="s">
-        <v>162</v>
+      <c r="E124" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E125" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="F125" s="7" t="s">
-        <v>162</v>
+      <c r="E125" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E126" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>162</v>
+      <c r="E126" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E127" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F127" s="7" t="s">
-        <v>162</v>
+      <c r="E127" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E128" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="F128" s="7" t="s">
-        <v>162</v>
+      <c r="E128" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E129" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F129" s="7" t="s">
-        <v>162</v>
+      <c r="E129" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E130" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="F130" s="7" t="s">
-        <v>162</v>
+      <c r="E130" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E131" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="F131" s="7" t="s">
-        <v>162</v>
+      <c r="E131" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E132" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F132" s="7" t="s">
-        <v>162</v>
+      <c r="E132" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E133" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>162</v>
+      <c r="E133" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E134" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="F134" s="7" t="s">
-        <v>162</v>
+      <c r="E134" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E135" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>162</v>
+      <c r="E135" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E136" s="10" t="s">
+      <c r="E136" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F136" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="F136" s="7" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E137" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="F137" s="7" t="s">
-        <v>162</v>
+      <c r="E137" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E138" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>162</v>
+      <c r="E138" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E139" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="F139" s="7" t="s">
-        <v>162</v>
+      <c r="E139" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E140" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>180</v>
+      <c r="E140" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E141" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="F141" s="7" t="s">
-        <v>162</v>
+      <c r="E141" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E142" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F142" s="7" t="s">
-        <v>162</v>
+      <c r="E142" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E143" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>162</v>
+      <c r="E143" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E144" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="F144" s="7" t="s">
-        <v>162</v>
+      <c r="E144" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D145" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E145" s="16" t="s">
-        <v>186</v>
+      <c r="D145" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="E145" s="17" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E146" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="F146" s="7" t="s">
-        <v>188</v>
+      <c r="E146" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E147" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="F147" s="7" t="s">
-        <v>188</v>
+      <c r="E147" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E148" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>188</v>
+      <c r="E148" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E149" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F149" s="7" t="s">
-        <v>188</v>
+      <c r="E149" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E150" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="F150" s="7" t="s">
-        <v>188</v>
+      <c r="E150" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E151" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F151" s="7" t="s">
-        <v>188</v>
+      <c r="E151" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E152" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="F152" s="7" t="s">
-        <v>188</v>
+      <c r="E152" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E153" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="F153" s="7" t="s">
-        <v>188</v>
+      <c r="E153" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E154" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="F154" s="7" t="s">
-        <v>188</v>
+      <c r="E154" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E155" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="F155" s="7" t="s">
-        <v>188</v>
+      <c r="E155" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E156" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="F156" s="7" t="s">
-        <v>188</v>
+      <c r="E156" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E157" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>188</v>
+      <c r="E157" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E158" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>188</v>
+      <c r="E158" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F159" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="F159" s="7" t="s">
-        <v>188</v>
-      </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E160" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="F160" s="7" t="s">
-        <v>188</v>
+      <c r="E160" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E161" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F161" s="7" t="s">
-        <v>188</v>
+      <c r="E161" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E162" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F162" s="7" t="s">
-        <v>188</v>
+      <c r="E162" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="2"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>188</v>
+      <c r="D163" s="13"/>
+      <c r="E163" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="2"/>
-      <c r="D164" s="12"/>
-      <c r="E164" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="F164" s="7" t="s">
-        <v>188</v>
+      <c r="D164" s="13"/>
+      <c r="E164" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="2"/>
-      <c r="D165" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="E165" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F165" s="8"/>
+      <c r="D165" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E165" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="F165" s="9"/>
     </row>
     <row r="166" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C166" s="14"/>
-      <c r="D166" s="6"/>
-      <c r="E166" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>210</v>
+      <c r="C166" s="15"/>
+      <c r="D166" s="7"/>
+      <c r="E166" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C167" s="14"/>
-      <c r="D167" s="6"/>
-      <c r="E167" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="F167" s="7" t="s">
-        <v>212</v>
+      <c r="C167" s="15"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C168" s="14"/>
-      <c r="D168" s="6"/>
-      <c r="E168" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>210</v>
+      <c r="C168" s="15"/>
+      <c r="D168" s="7"/>
+      <c r="E168" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C169" s="14"/>
-      <c r="D169" s="6"/>
-      <c r="E169" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F169" s="7" t="s">
-        <v>212</v>
+      <c r="C169" s="15"/>
+      <c r="D169" s="7"/>
+      <c r="E169" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C170" s="14"/>
-      <c r="D170" s="6"/>
-      <c r="E170" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F170" s="7" t="s">
-        <v>210</v>
+      <c r="C170" s="15"/>
+      <c r="D170" s="7"/>
+      <c r="E170" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B171" s="9"/>
-      <c r="C171" s="11"/>
-      <c r="D171" s="16"/>
-      <c r="E171" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>210</v>
+      <c r="B171" s="10"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B172" s="9"/>
-      <c r="C172" s="11"/>
-      <c r="D172" s="16"/>
-      <c r="E172" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="F172" s="7" t="s">
-        <v>210</v>
+      <c r="B172" s="10"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B173" s="9"/>
-      <c r="C173" s="11"/>
-      <c r="D173" s="16"/>
-      <c r="E173" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="F173" s="7" t="s">
-        <v>212</v>
+      <c r="B173" s="10"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B174" s="9"/>
-      <c r="C174" s="11"/>
-      <c r="D174" s="16"/>
-      <c r="E174" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F174" s="7" t="s">
-        <v>210</v>
+      <c r="B174" s="10"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B175" s="9"/>
-      <c r="C175" s="11"/>
-      <c r="D175" s="16"/>
-      <c r="E175" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="F175" s="7" t="s">
-        <v>210</v>
+      <c r="B175" s="10"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B176" s="9"/>
-      <c r="C176" s="11"/>
-      <c r="D176" s="16"/>
-      <c r="E176" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="F176" s="7" t="s">
-        <v>210</v>
+      <c r="B176" s="10"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B177" s="9"/>
-      <c r="C177" s="11"/>
-      <c r="D177" s="16"/>
-      <c r="E177" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="F177" s="7" t="s">
-        <v>212</v>
+      <c r="B177" s="10"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B178" s="9"/>
-      <c r="C178" s="11"/>
-      <c r="D178" s="16"/>
-      <c r="E178" s="10" t="s">
+      <c r="B178" s="10"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="F178" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="F178" s="7" t="s">
-        <v>210</v>
-      </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B179" s="9"/>
-      <c r="C179" s="11"/>
-      <c r="D179" s="16"/>
-      <c r="E179" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F179" s="7" t="s">
-        <v>210</v>
+      <c r="B179" s="10"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B180" s="9"/>
-      <c r="C180" s="11"/>
-      <c r="D180" s="16"/>
-      <c r="E180" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F180" s="7" t="s">
-        <v>210</v>
+      <c r="B180" s="10"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B181" s="9"/>
-      <c r="C181" s="11"/>
-      <c r="D181" s="16"/>
-      <c r="E181" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F181" s="7" t="s">
-        <v>227</v>
+      <c r="B181" s="10"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B182" s="9"/>
-      <c r="C182" s="11"/>
-      <c r="D182" s="16"/>
-      <c r="E182" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="F182" s="7" t="s">
-        <v>227</v>
+      <c r="B182" s="10"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B183" s="9"/>
-      <c r="C183" s="11"/>
-      <c r="D183" s="16"/>
-      <c r="E183" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F183" s="7" t="s">
-        <v>210</v>
+      <c r="B183" s="10"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B184" s="9"/>
-      <c r="C184" s="11"/>
-      <c r="D184" s="16"/>
-      <c r="E184" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="F184" s="7" t="s">
-        <v>210</v>
+      <c r="B184" s="10"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B185" s="9"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="E185" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="F185" s="17"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="10"/>
+      <c r="D185" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="F185" s="18"/>
     </row>
     <row r="186" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B186" s="9"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="10"/>
-      <c r="E186" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="F186" s="7" t="s">
+      <c r="B186" s="10"/>
+      <c r="C186" s="10"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="187" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B187" s="10"/>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="188" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B188" s="10"/>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="189" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B189" s="10"/>
+      <c r="C189" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="D189" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="E189" s="10"/>
+    </row>
+    <row r="190" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B190" s="10"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="191" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B191" s="10"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="11"/>
+      <c r="E191" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="192" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B192" s="10"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="11"/>
+      <c r="E192" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="193" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B193" s="10"/>
+      <c r="C193" s="10"/>
+      <c r="D193" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="E193" s="14" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="187" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B187" s="9"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="E187" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="F187" s="7" t="s">
+    <row r="194" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B194" s="10"/>
+      <c r="C194" s="10"/>
+      <c r="D194" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="E194" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="188" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="F188" s="7" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="189" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B189" s="9"/>
-      <c r="C189" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="D189" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="E189" s="9"/>
-    </row>
-    <row r="190" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B190" s="9"/>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E190" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="191" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B191" s="9"/>
-      <c r="C191" s="10"/>
-      <c r="D191" s="10"/>
-      <c r="E191" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="F191" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B192" s="9"/>
-      <c r="C192" s="10"/>
-      <c r="D192" s="10"/>
-      <c r="E192" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="F192" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="193" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B193" s="9"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E193" s="13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="194" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="E194" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
     <row r="195" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B195" s="9"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="E195" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="F195" s="7" t="s">
-        <v>44</v>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B196" s="9"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="E196" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="F196" s="7" t="s">
-        <v>44</v>
+      <c r="B196" s="10"/>
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B197" s="9"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="E197" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="F197" s="7" t="s">
-        <v>44</v>
+      <c r="B197" s="10"/>
+      <c r="C197" s="10"/>
+      <c r="D197" s="10"/>
+      <c r="E197" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B198" s="9"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="E198" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="F198" s="7" t="s">
-        <v>44</v>
+      <c r="B198" s="10"/>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B199" s="9"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="E199" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="F199" s="7" t="s">
-        <v>44</v>
+      <c r="B199" s="10"/>
+      <c r="C199" s="10"/>
+      <c r="D199" s="10"/>
+      <c r="E199" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B200" s="9"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="E200" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F200" s="7" t="s">
-        <v>44</v>
+      <c r="B200" s="10"/>
+      <c r="C200" s="10"/>
+      <c r="D200" s="10"/>
+      <c r="E200" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B201" s="9"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="E201" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="F201" s="7" t="s">
-        <v>44</v>
+      <c r="B201" s="10"/>
+      <c r="C201" s="10"/>
+      <c r="D201" s="10"/>
+      <c r="E201" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B202" s="9"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="E202" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="F202" s="7" t="s">
-        <v>44</v>
+      <c r="B202" s="10"/>
+      <c r="C202" s="10"/>
+      <c r="D202" s="10"/>
+      <c r="E202" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B203" s="9"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="E203" s="13" t="s">
-        <v>253</v>
+      <c r="B203" s="10"/>
+      <c r="C203" s="10"/>
+      <c r="D203" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B204" s="9"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="E204" s="13" t="s">
-        <v>255</v>
+      <c r="B204" s="10"/>
+      <c r="C204" s="10"/>
+      <c r="D204" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="E204" s="14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B205" s="9"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="E205" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="F205" s="7" t="s">
-        <v>257</v>
+      <c r="B205" s="10"/>
+      <c r="C205" s="10"/>
+      <c r="D205" s="10"/>
+      <c r="E205" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B206" s="9"/>
-      <c r="C206" s="9"/>
-      <c r="D206" s="9"/>
-      <c r="E206" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="F206" s="7" t="s">
-        <v>257</v>
+      <c r="B206" s="10"/>
+      <c r="C206" s="10"/>
+      <c r="D206" s="10"/>
+      <c r="E206" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B207" s="9"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="E207" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F207" s="7" t="s">
-        <v>257</v>
+      <c r="B207" s="10"/>
+      <c r="C207" s="10"/>
+      <c r="D207" s="10"/>
+      <c r="E207" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="F207" s="8" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B208" s="9"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="E208" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="F208" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="G208" s="7"/>
+      <c r="B208" s="10"/>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="F208" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="G208" s="8"/>
     </row>
     <row r="209" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B209" s="9"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="E209" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="F209" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="G209" s="7"/>
+      <c r="B209" s="10"/>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="F209" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="G209" s="8"/>
     </row>
     <row r="210" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B210" s="9"/>
-      <c r="C210" s="10"/>
-      <c r="D210" s="9"/>
-      <c r="E210" s="7"/>
-      <c r="F210" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="G210" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="H210" s="9"/>
-      <c r="I210" s="9"/>
-      <c r="J210" s="9"/>
+      <c r="B210" s="10"/>
+      <c r="C210" s="11"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="8"/>
+      <c r="F210" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G210" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
     </row>
     <row r="211" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F211" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G211" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
+      <c r="F211" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="G211" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="H211" s="10"/>
+      <c r="I211" s="10"/>
+      <c r="J211" s="10"/>
     </row>
     <row r="212" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F212" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="G212" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="H212" s="9"/>
-      <c r="I212" s="9"/>
-      <c r="J212" s="9"/>
+      <c r="F212" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="G212" s="14" t="s">
+        <v>282</v>
+      </c>
+      <c r="H212" s="10"/>
+      <c r="I212" s="10"/>
+      <c r="J212" s="10"/>
     </row>
     <row r="213" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F213" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="G213" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="H213" s="9"/>
-      <c r="I213" s="9"/>
-      <c r="J213" s="9"/>
-    </row>
-    <row r="214" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F214" s="9"/>
-      <c r="G214" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="H214" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="I214" s="9"/>
-      <c r="J214" s="9"/>
+      <c r="F213" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="G213" s="14" t="s">
+        <v>284</v>
+      </c>
+      <c r="H213" s="10"/>
+      <c r="I213" s="10"/>
+      <c r="J213" s="10"/>
+    </row>
+    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="F214" s="10"/>
+      <c r="G214" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="H214" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="I214" s="10"/>
+      <c r="J214" s="10"/>
     </row>
     <row r="215" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="F215" s="9"/>
-      <c r="G215" s="9"/>
-      <c r="H215" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="I215" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="J215" s="9"/>
-    </row>
-    <row r="216" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C216" s="1"/>
-      <c r="D216" s="1"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="13"/>
-      <c r="G216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="I216" s="9"/>
-      <c r="J216" s="9"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="I215" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J215" s="10"/>
+    </row>
+    <row r="216" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E216" s="13"/>
+      <c r="F216" s="14"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
     </row>
     <row r="217" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E217" s="12"/>
-      <c r="F217" s="13"/>
-      <c r="G217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="I217" s="9"/>
-      <c r="J217" s="9"/>
+      <c r="E217" s="13"/>
+      <c r="F217" s="14"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
     </row>
     <row r="218" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E218" s="12"/>
-      <c r="F218" s="7"/>
+      <c r="E218" s="13"/>
+      <c r="F218" s="8"/>
     </row>
     <row r="219" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E219" s="12"/>
-      <c r="F219" s="7"/>
+      <c r="E219" s="13"/>
+      <c r="F219" s="8"/>
     </row>
     <row r="220" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E220" s="12"/>
-      <c r="F220" s="7"/>
+      <c r="E220" s="13"/>
+      <c r="F220" s="8"/>
     </row>
     <row r="221" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E221" s="12"/>
-      <c r="F221" s="7"/>
-    </row>
-    <row r="222" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E222" s="12"/>
-      <c r="F222" s="7"/>
+      <c r="E221" s="13"/>
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="8"/>
     </row>
     <row r="223" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E223" s="12"/>
-      <c r="F223" s="7"/>
-    </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C224" s="1"/>
-      <c r="D224" s="1"/>
-      <c r="E224" s="12"/>
-      <c r="F224" s="7"/>
+      <c r="E223" s="13"/>
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E224" s="13"/>
+      <c r="F224" s="8"/>
     </row>
     <row r="225" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E225" s="12"/>
-      <c r="F225" s="7"/>
+      <c r="E225" s="13"/>
+      <c r="F225" s="8"/>
     </row>
     <row r="226" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E226" s="12"/>
-      <c r="F226" s="7"/>
+      <c r="E226" s="13"/>
+      <c r="F226" s="8"/>
     </row>
     <row r="227" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E227" s="12"/>
-      <c r="F227" s="7"/>
+      <c r="E227" s="13"/>
+      <c r="F227" s="8"/>
     </row>
     <row r="228" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E228" s="12"/>
-      <c r="F228" s="7"/>
+      <c r="E228" s="13"/>
+      <c r="F228" s="8"/>
     </row>
     <row r="229" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E229" s="12"/>
-      <c r="F229" s="7"/>
+      <c r="E229" s="13"/>
+      <c r="F229" s="8"/>
     </row>
     <row r="230" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E230" s="12"/>
-      <c r="F230" s="7"/>
+      <c r="E230" s="13"/>
+      <c r="F230" s="8"/>
     </row>
     <row r="231" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E231" s="12"/>
-      <c r="F231" s="7"/>
+      <c r="E231" s="13"/>
+      <c r="F231" s="8"/>
     </row>
     <row r="232" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E232" s="12"/>
-      <c r="F232" s="7"/>
+      <c r="E232" s="13"/>
+      <c r="F232" s="8"/>
     </row>
     <row r="233" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E233" s="12"/>
-      <c r="F233" s="7"/>
+      <c r="E233" s="13"/>
+      <c r="F233" s="8"/>
     </row>
     <row r="234" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E234" s="12"/>
-      <c r="F234" s="7"/>
+      <c r="E234" s="13"/>
+      <c r="F234" s="8"/>
     </row>
     <row r="235" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E235" s="12"/>
-      <c r="F235" s="7"/>
+      <c r="E235" s="13"/>
+      <c r="F235" s="8"/>
     </row>
     <row r="236" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E236" s="12"/>
-      <c r="F236" s="7"/>
+      <c r="E236" s="13"/>
+      <c r="F236" s="8"/>
     </row>
     <row r="237" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E237" s="12"/>
-      <c r="F237" s="7"/>
+      <c r="E237" s="13"/>
+      <c r="F237" s="8"/>
     </row>
     <row r="238" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E238" s="12"/>
-      <c r="F238" s="7"/>
+      <c r="E238" s="13"/>
+      <c r="F238" s="8"/>
     </row>
     <row r="239" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E239" s="12"/>
-      <c r="F239" s="7"/>
+      <c r="E239" s="13"/>
+      <c r="F239" s="8"/>
     </row>
     <row r="240" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E240" s="12"/>
-      <c r="F240" s="7"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="8"/>
     </row>
     <row r="241" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E241" s="12"/>
-      <c r="F241" s="7"/>
+      <c r="E241" s="13"/>
+      <c r="F241" s="8"/>
     </row>
     <row r="242" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E242" s="12"/>
-      <c r="F242" s="7"/>
+      <c r="E242" s="13"/>
+      <c r="F242" s="8"/>
     </row>
     <row r="243" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E243" s="12"/>
-      <c r="F243" s="7"/>
+      <c r="E243" s="13"/>
+      <c r="F243" s="8"/>
     </row>
     <row r="244" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E244" s="12"/>
-      <c r="F244" s="7"/>
+      <c r="E244" s="13"/>
+      <c r="F244" s="8"/>
     </row>
     <row r="245" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E245" s="12"/>
-      <c r="F245" s="7"/>
+      <c r="E245" s="13"/>
+      <c r="F245" s="8"/>
     </row>
     <row r="246" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E246" s="12"/>
-      <c r="F246" s="7"/>
+      <c r="E246" s="13"/>
+      <c r="F246" s="8"/>
     </row>
     <row r="247" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E247" s="12"/>
-      <c r="F247" s="7"/>
+      <c r="E247" s="13"/>
+      <c r="F247" s="8"/>
     </row>
     <row r="248" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E248" s="12"/>
-      <c r="F248" s="7"/>
+      <c r="E248" s="13"/>
+      <c r="F248" s="8"/>
     </row>
     <row r="249" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E249" s="12"/>
-      <c r="F249" s="7"/>
+      <c r="E249" s="13"/>
+      <c r="F249" s="8"/>
     </row>
     <row r="250" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="251" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3355,3463 +3451,3467 @@
     <row r="261" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="262" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="263" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C263" s="12"/>
-      <c r="D263" s="7"/>
+      <c r="C263" s="13"/>
+      <c r="D263" s="8"/>
     </row>
     <row r="264" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D264" s="12"/>
-      <c r="E264" s="7"/>
+      <c r="D264" s="13"/>
+      <c r="E264" s="8"/>
     </row>
     <row r="265" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E265" s="12"/>
-      <c r="F265" s="7"/>
+      <c r="E265" s="13"/>
+      <c r="F265" s="8"/>
     </row>
     <row r="266" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E266" s="12"/>
-      <c r="F266" s="7"/>
+      <c r="E266" s="13"/>
+      <c r="F266" s="8"/>
     </row>
     <row r="267" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E267" s="12"/>
-      <c r="F267" s="7"/>
+      <c r="E267" s="13"/>
+      <c r="F267" s="8"/>
     </row>
     <row r="268" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E268" s="12"/>
-      <c r="F268" s="7"/>
+      <c r="E268" s="13"/>
+      <c r="F268" s="8"/>
     </row>
     <row r="269" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E269" s="12"/>
-      <c r="F269" s="7"/>
+      <c r="E269" s="13"/>
+      <c r="F269" s="8"/>
     </row>
     <row r="270" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E270" s="12"/>
-      <c r="F270" s="7"/>
+      <c r="E270" s="13"/>
+      <c r="F270" s="8"/>
     </row>
     <row r="271" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C271" s="12"/>
-      <c r="D271" s="12"/>
-      <c r="E271" s="7"/>
+      <c r="C271" s="13"/>
+      <c r="D271" s="13"/>
+      <c r="E271" s="8"/>
     </row>
     <row r="272" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D272" s="10"/>
-      <c r="E272" s="13"/>
+      <c r="D272" s="11"/>
+      <c r="E272" s="14"/>
     </row>
     <row r="273" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E273" s="12"/>
-      <c r="F273" s="7"/>
+      <c r="E273" s="13"/>
+      <c r="F273" s="8"/>
     </row>
     <row r="274" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E274" s="12"/>
-      <c r="F274" s="7"/>
+      <c r="E274" s="13"/>
+      <c r="F274" s="8"/>
     </row>
     <row r="275" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E275" s="12"/>
-      <c r="F275" s="7"/>
+      <c r="E275" s="13"/>
+      <c r="F275" s="8"/>
     </row>
     <row r="276" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E276" s="12"/>
-      <c r="F276" s="7"/>
+      <c r="E276" s="13"/>
+      <c r="F276" s="8"/>
     </row>
     <row r="277" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E277" s="12"/>
-      <c r="F277" s="7"/>
+      <c r="E277" s="13"/>
+      <c r="F277" s="8"/>
     </row>
     <row r="278" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E278" s="12"/>
-      <c r="F278" s="7"/>
+      <c r="E278" s="13"/>
+      <c r="F278" s="8"/>
     </row>
     <row r="279" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E279" s="12"/>
-      <c r="F279" s="7"/>
+      <c r="E279" s="13"/>
+      <c r="F279" s="8"/>
     </row>
     <row r="280" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E280" s="12"/>
-      <c r="F280" s="7"/>
+      <c r="E280" s="13"/>
+      <c r="F280" s="8"/>
     </row>
     <row r="281" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D281" s="10"/>
-      <c r="E281" s="13"/>
-      <c r="F281" s="7"/>
+      <c r="D281" s="11"/>
+      <c r="E281" s="14"/>
+      <c r="F281" s="8"/>
     </row>
     <row r="282" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E282" s="12"/>
-      <c r="F282" s="7"/>
+      <c r="E282" s="13"/>
+      <c r="F282" s="8"/>
     </row>
     <row r="283" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E283" s="12"/>
-      <c r="F283" s="7"/>
+      <c r="E283" s="13"/>
+      <c r="F283" s="8"/>
     </row>
     <row r="284" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E284" s="12"/>
-      <c r="F284" s="7"/>
+      <c r="E284" s="13"/>
+      <c r="F284" s="8"/>
     </row>
     <row r="285" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D285" s="12"/>
-      <c r="E285" s="7"/>
+      <c r="D285" s="13"/>
+      <c r="E285" s="8"/>
     </row>
     <row r="286" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E286" s="12"/>
+      <c r="E286" s="13"/>
     </row>
     <row r="287" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D287" s="12"/>
-      <c r="E287" s="7"/>
+      <c r="D287" s="13"/>
+      <c r="E287" s="8"/>
     </row>
     <row r="288" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D288" s="12"/>
-      <c r="E288" s="7"/>
+      <c r="D288" s="13"/>
+      <c r="E288" s="8"/>
     </row>
     <row r="289" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E289" s="12"/>
-      <c r="F289" s="7"/>
+      <c r="E289" s="13"/>
+      <c r="F289" s="8"/>
     </row>
     <row r="290" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E290" s="12"/>
-      <c r="F290" s="7"/>
+      <c r="E290" s="13"/>
+      <c r="F290" s="8"/>
     </row>
     <row r="291" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E291" s="12"/>
-      <c r="F291" s="7"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="8"/>
     </row>
     <row r="292" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E292" s="12"/>
-      <c r="F292" s="7"/>
+      <c r="E292" s="13"/>
+      <c r="F292" s="8"/>
     </row>
     <row r="293" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E293" s="12"/>
-      <c r="F293" s="7"/>
+      <c r="E293" s="13"/>
+      <c r="F293" s="8"/>
     </row>
     <row r="294" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E294" s="12"/>
-      <c r="F294" s="7"/>
+      <c r="E294" s="13"/>
+      <c r="F294" s="8"/>
     </row>
     <row r="295" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E295" s="12"/>
-      <c r="F295" s="7"/>
+      <c r="E295" s="13"/>
+      <c r="F295" s="8"/>
     </row>
     <row r="296" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E296" s="12"/>
-      <c r="F296" s="7"/>
+      <c r="E296" s="13"/>
+      <c r="F296" s="8"/>
     </row>
     <row r="297" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E297" s="12"/>
-      <c r="F297" s="7"/>
+      <c r="E297" s="13"/>
+      <c r="F297" s="8"/>
     </row>
     <row r="298" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E298" s="12"/>
-      <c r="F298" s="7"/>
+      <c r="E298" s="13"/>
+      <c r="F298" s="8"/>
     </row>
     <row r="299" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E299" s="12"/>
-      <c r="F299" s="7"/>
+      <c r="E299" s="13"/>
+      <c r="F299" s="8"/>
     </row>
     <row r="300" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E300" s="12"/>
-      <c r="F300" s="7"/>
+      <c r="E300" s="13"/>
+      <c r="F300" s="8"/>
     </row>
     <row r="301" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E301" s="12"/>
-      <c r="F301" s="7"/>
+      <c r="E301" s="13"/>
+      <c r="F301" s="8"/>
     </row>
     <row r="302" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E302" s="12"/>
-      <c r="F302" s="7"/>
+      <c r="E302" s="13"/>
+      <c r="F302" s="8"/>
     </row>
     <row r="303" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D303" s="10"/>
-      <c r="E303" s="13"/>
+      <c r="D303" s="11"/>
+      <c r="E303" s="14"/>
     </row>
     <row r="304" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E304" s="12"/>
-      <c r="F304" s="7"/>
+      <c r="E304" s="13"/>
+      <c r="F304" s="8"/>
     </row>
     <row r="305" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E305" s="12"/>
-      <c r="F305" s="7"/>
+      <c r="E305" s="13"/>
+      <c r="F305" s="8"/>
     </row>
     <row r="306" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E306" s="12"/>
-      <c r="F306" s="7"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="8"/>
     </row>
     <row r="307" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E307" s="12"/>
-      <c r="F307" s="7"/>
+      <c r="E307" s="13"/>
+      <c r="F307" s="8"/>
     </row>
     <row r="308" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E308" s="12"/>
-      <c r="F308" s="7"/>
+      <c r="E308" s="13"/>
+      <c r="F308" s="8"/>
     </row>
     <row r="309" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E309" s="12"/>
-      <c r="F309" s="7"/>
+      <c r="E309" s="13"/>
+      <c r="F309" s="8"/>
     </row>
     <row r="310" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E310" s="12"/>
-      <c r="F310" s="7"/>
+      <c r="E310" s="13"/>
+      <c r="F310" s="8"/>
     </row>
     <row r="311" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E311" s="12"/>
-      <c r="F311" s="7"/>
+      <c r="E311" s="13"/>
+      <c r="F311" s="8"/>
     </row>
     <row r="312" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E312" s="12"/>
-      <c r="F312" s="7"/>
+      <c r="E312" s="13"/>
+      <c r="F312" s="8"/>
     </row>
     <row r="313" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E313" s="12"/>
-      <c r="F313" s="7"/>
+      <c r="E313" s="13"/>
+      <c r="F313" s="8"/>
     </row>
     <row r="314" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E314" s="12"/>
-      <c r="F314" s="7"/>
+      <c r="E314" s="13"/>
+      <c r="F314" s="8"/>
     </row>
     <row r="315" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E315" s="12"/>
-      <c r="F315" s="7"/>
+      <c r="E315" s="13"/>
+      <c r="F315" s="8"/>
     </row>
     <row r="316" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E316" s="12"/>
-      <c r="F316" s="7"/>
+      <c r="E316" s="13"/>
+      <c r="F316" s="8"/>
     </row>
     <row r="317" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E317" s="12"/>
-      <c r="F317" s="7"/>
+      <c r="E317" s="13"/>
+      <c r="F317" s="8"/>
     </row>
     <row r="318" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E318" s="12"/>
-      <c r="F318" s="7"/>
+      <c r="E318" s="13"/>
+      <c r="F318" s="8"/>
     </row>
     <row r="319" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E319" s="12"/>
-      <c r="F319" s="7"/>
+      <c r="E319" s="13"/>
+      <c r="F319" s="8"/>
     </row>
     <row r="320" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E320" s="12"/>
-      <c r="F320" s="7"/>
+      <c r="E320" s="13"/>
+      <c r="F320" s="8"/>
     </row>
     <row r="321" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E321" s="12"/>
-      <c r="F321" s="7"/>
+      <c r="E321" s="13"/>
+      <c r="F321" s="8"/>
     </row>
     <row r="322" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E322" s="12"/>
-      <c r="F322" s="7"/>
+      <c r="E322" s="13"/>
+      <c r="F322" s="8"/>
     </row>
     <row r="323" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E323" s="12"/>
-      <c r="F323" s="7"/>
+      <c r="E323" s="13"/>
+      <c r="F323" s="8"/>
     </row>
     <row r="324" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E324" s="12"/>
-      <c r="F324" s="7"/>
+      <c r="E324" s="13"/>
+      <c r="F324" s="8"/>
     </row>
     <row r="325" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E325" s="12"/>
-      <c r="F325" s="7"/>
+      <c r="E325" s="13"/>
+      <c r="F325" s="8"/>
     </row>
     <row r="326" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E326" s="12"/>
-      <c r="F326" s="7"/>
+      <c r="E326" s="13"/>
+      <c r="F326" s="8"/>
     </row>
     <row r="327" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E327" s="12"/>
-      <c r="F327" s="7"/>
+      <c r="E327" s="13"/>
+      <c r="F327" s="8"/>
     </row>
     <row r="328" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E328" s="12"/>
-      <c r="F328" s="7"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="8"/>
     </row>
     <row r="329" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E329" s="12"/>
-      <c r="F329" s="7"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="8"/>
     </row>
     <row r="330" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E330" s="12"/>
-      <c r="F330" s="7"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="8"/>
     </row>
     <row r="331" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E331" s="12"/>
-      <c r="F331" s="7"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="8"/>
     </row>
     <row r="332" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E332" s="12"/>
-      <c r="F332" s="7"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="8"/>
     </row>
     <row r="333" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E333" s="12"/>
-      <c r="F333" s="7"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="8"/>
     </row>
     <row r="334" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E334" s="12"/>
-      <c r="F334" s="7"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="8"/>
     </row>
     <row r="335" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E335" s="12"/>
-      <c r="F335" s="7"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="8"/>
     </row>
     <row r="336" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E336" s="12"/>
-      <c r="F336" s="7"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="8"/>
     </row>
     <row r="337" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E337" s="12"/>
-      <c r="F337" s="7"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="8"/>
     </row>
     <row r="338" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E338" s="12"/>
-      <c r="F338" s="7"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="8"/>
     </row>
     <row r="339" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E339" s="12"/>
-      <c r="F339" s="7"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="8"/>
     </row>
     <row r="340" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E340" s="12"/>
-      <c r="F340" s="7"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="8"/>
     </row>
     <row r="341" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E341" s="12"/>
-      <c r="F341" s="7"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="8"/>
     </row>
     <row r="342" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E342" s="12"/>
-      <c r="F342" s="7"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="8"/>
     </row>
     <row r="343" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E343" s="12"/>
-      <c r="F343" s="7"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="8"/>
     </row>
     <row r="344" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E344" s="12"/>
-      <c r="F344" s="7"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="8"/>
     </row>
     <row r="345" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E345" s="12"/>
-      <c r="F345" s="7"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="8"/>
     </row>
     <row r="346" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E346" s="12"/>
-      <c r="F346" s="7"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="8"/>
     </row>
     <row r="347" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E347" s="12"/>
-      <c r="F347" s="7"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="8"/>
     </row>
     <row r="348" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="D348" s="10"/>
-      <c r="E348" s="13"/>
+      <c r="D348" s="11"/>
+      <c r="E348" s="14"/>
     </row>
     <row r="349" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E349" s="12"/>
-      <c r="F349" s="7"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="8"/>
     </row>
     <row r="350" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E350" s="12"/>
-      <c r="F350" s="7"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="8"/>
     </row>
     <row r="351" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E351" s="12"/>
-      <c r="F351" s="7"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="8"/>
     </row>
     <row r="352" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E352" s="12"/>
-      <c r="F352" s="7"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="8"/>
     </row>
     <row r="353" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E353" s="12"/>
-      <c r="F353" s="7"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="8"/>
     </row>
     <row r="354" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E354" s="12"/>
-      <c r="F354" s="7"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="8"/>
     </row>
     <row r="355" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E355" s="12"/>
-      <c r="F355" s="7"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="8"/>
     </row>
     <row r="356" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E356" s="12"/>
-      <c r="F356" s="7"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="8"/>
     </row>
     <row r="357" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E357" s="12"/>
-      <c r="F357" s="7"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="8"/>
     </row>
     <row r="358" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E358" s="12"/>
-      <c r="F358" s="7"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="8"/>
     </row>
     <row r="359" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E359" s="12"/>
-      <c r="F359" s="7"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="8"/>
     </row>
     <row r="360" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E360" s="12"/>
-      <c r="F360" s="7"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="8"/>
     </row>
     <row r="361" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E361" s="12"/>
-      <c r="F361" s="7"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="8"/>
     </row>
     <row r="362" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E362" s="12"/>
-      <c r="F362" s="7"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="8"/>
     </row>
     <row r="363" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E363" s="12"/>
-      <c r="F363" s="7"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="8"/>
     </row>
     <row r="364" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E364" s="12"/>
-      <c r="F364" s="7"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="8"/>
     </row>
     <row r="365" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E365" s="12"/>
-      <c r="F365" s="7"/>
+      <c r="E365" s="13"/>
+      <c r="F365" s="8"/>
     </row>
     <row r="366" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E366" s="12"/>
-      <c r="F366" s="7"/>
+      <c r="E366" s="13"/>
+      <c r="F366" s="8"/>
     </row>
     <row r="367" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E367" s="12"/>
-      <c r="F367" s="7"/>
+      <c r="E367" s="13"/>
+      <c r="F367" s="8"/>
     </row>
     <row r="368" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E368" s="12"/>
-      <c r="F368" s="7"/>
+      <c r="E368" s="13"/>
+      <c r="F368" s="8"/>
     </row>
     <row r="369" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E369" s="12"/>
-      <c r="F369" s="7"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="8"/>
     </row>
     <row r="370" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E370" s="12"/>
-      <c r="F370" s="7"/>
+      <c r="E370" s="13"/>
+      <c r="F370" s="8"/>
     </row>
     <row r="371" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E371" s="12"/>
-      <c r="F371" s="7"/>
-    </row>
-    <row r="372" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E372" s="12"/>
-      <c r="F372" s="7"/>
-    </row>
-    <row r="373" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E373" s="12"/>
-      <c r="F373" s="7"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="8"/>
+    </row>
+    <row r="372" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C372" s="1"/>
+      <c r="D372" s="1"/>
+      <c r="E372" s="13"/>
+      <c r="F372" s="8"/>
+    </row>
+    <row r="373" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C373" s="1"/>
+      <c r="D373" s="1"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="8"/>
     </row>
     <row r="374" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C374" s="1"/>
       <c r="D374" s="1"/>
-      <c r="E374" s="12"/>
-      <c r="F374" s="7"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="8"/>
     </row>
     <row r="375" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C375" s="1"/>
       <c r="D375" s="1"/>
-      <c r="E375" s="12"/>
-      <c r="F375" s="7"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="8"/>
     </row>
     <row r="376" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C376" s="1"/>
       <c r="D376" s="1"/>
-      <c r="E376" s="12"/>
-      <c r="F376" s="7"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="8"/>
     </row>
     <row r="377" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C377" s="1"/>
       <c r="D377" s="1"/>
-      <c r="E377" s="12"/>
-      <c r="F377" s="7"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="8"/>
     </row>
     <row r="378" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C378" s="1"/>
       <c r="D378" s="1"/>
-      <c r="E378" s="12"/>
-      <c r="F378" s="7"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="8"/>
     </row>
     <row r="379" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C379" s="1"/>
       <c r="D379" s="1"/>
-      <c r="E379" s="12"/>
-      <c r="F379" s="7"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="8"/>
     </row>
     <row r="380" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C380" s="1"/>
       <c r="D380" s="1"/>
-      <c r="E380" s="12"/>
-      <c r="F380" s="7"/>
+      <c r="E380" s="13"/>
+      <c r="F380" s="8"/>
     </row>
     <row r="381" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C381" s="1"/>
       <c r="D381" s="1"/>
-      <c r="E381" s="12"/>
-      <c r="F381" s="7"/>
+      <c r="E381" s="13"/>
+      <c r="F381" s="8"/>
     </row>
     <row r="382" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C382" s="1"/>
       <c r="D382" s="1"/>
-      <c r="E382" s="12"/>
-      <c r="F382" s="7"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="8"/>
     </row>
     <row r="383" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C383" s="1"/>
       <c r="D383" s="1"/>
-      <c r="E383" s="12"/>
-      <c r="F383" s="7"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="8"/>
     </row>
     <row r="384" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C384" s="1"/>
       <c r="D384" s="1"/>
-      <c r="E384" s="12"/>
-      <c r="F384" s="7"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="8"/>
     </row>
     <row r="385" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C385" s="1"/>
       <c r="D385" s="1"/>
-      <c r="E385" s="12"/>
-      <c r="F385" s="7"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="8"/>
     </row>
     <row r="386" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C386" s="1"/>
       <c r="D386" s="1"/>
-      <c r="E386" s="12"/>
-      <c r="F386" s="7"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="8"/>
     </row>
     <row r="387" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C387" s="1"/>
       <c r="D387" s="1"/>
-      <c r="E387" s="12"/>
-      <c r="F387" s="7"/>
+      <c r="E387" s="13"/>
+      <c r="F387" s="8"/>
     </row>
     <row r="388" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C388" s="1"/>
       <c r="D388" s="1"/>
-      <c r="E388" s="12"/>
-      <c r="F388" s="7"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="8"/>
     </row>
     <row r="389" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C389" s="1"/>
       <c r="D389" s="1"/>
-      <c r="E389" s="12"/>
-      <c r="F389" s="7"/>
+      <c r="E389" s="13"/>
+      <c r="F389" s="8"/>
     </row>
     <row r="390" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C390" s="1"/>
       <c r="D390" s="1"/>
-      <c r="E390" s="12"/>
-      <c r="F390" s="7"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="8"/>
     </row>
     <row r="391" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C391" s="1"/>
       <c r="D391" s="1"/>
-      <c r="E391" s="12"/>
-      <c r="F391" s="7"/>
+      <c r="E391" s="13"/>
+      <c r="F391" s="8"/>
     </row>
     <row r="392" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C392" s="1"/>
       <c r="D392" s="1"/>
-      <c r="E392" s="12"/>
-      <c r="F392" s="7"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="8"/>
     </row>
     <row r="393" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C393" s="1"/>
       <c r="D393" s="1"/>
-      <c r="E393" s="12"/>
-      <c r="F393" s="7"/>
+      <c r="E393" s="13"/>
+      <c r="F393" s="8"/>
     </row>
     <row r="394" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C394" s="1"/>
       <c r="D394" s="1"/>
-      <c r="E394" s="12"/>
-      <c r="F394" s="7"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="8"/>
     </row>
     <row r="395" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C395" s="1"/>
       <c r="D395" s="1"/>
-      <c r="E395" s="12"/>
-      <c r="F395" s="7"/>
+      <c r="E395" s="13"/>
+      <c r="F395" s="8"/>
     </row>
     <row r="396" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C396" s="1"/>
       <c r="D396" s="1"/>
-      <c r="E396" s="12"/>
-      <c r="F396" s="7"/>
+      <c r="E396" s="13"/>
+      <c r="F396" s="8"/>
     </row>
     <row r="397" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C397" s="1"/>
       <c r="D397" s="1"/>
-      <c r="E397" s="12"/>
-      <c r="F397" s="7"/>
+      <c r="E397" s="13"/>
+      <c r="F397" s="8"/>
     </row>
     <row r="398" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C398" s="1"/>
       <c r="D398" s="1"/>
-      <c r="E398" s="12"/>
-      <c r="F398" s="7"/>
+      <c r="E398" s="13"/>
+      <c r="F398" s="8"/>
     </row>
     <row r="399" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C399" s="1"/>
       <c r="D399" s="1"/>
-      <c r="E399" s="12"/>
-      <c r="F399" s="7"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="8"/>
     </row>
     <row r="400" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C400" s="1"/>
       <c r="D400" s="1"/>
-      <c r="E400" s="12"/>
-      <c r="F400" s="7"/>
+      <c r="E400" s="13"/>
+      <c r="F400" s="8"/>
     </row>
     <row r="401" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C401" s="1"/>
       <c r="D401" s="1"/>
-      <c r="E401" s="12"/>
-      <c r="F401" s="7"/>
+      <c r="E401" s="13"/>
+      <c r="F401" s="8"/>
     </row>
     <row r="402" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C402" s="1"/>
       <c r="D402" s="1"/>
-      <c r="E402" s="12"/>
-      <c r="F402" s="7"/>
+      <c r="E402" s="13"/>
+      <c r="F402" s="8"/>
     </row>
     <row r="403" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C403" s="1"/>
       <c r="D403" s="1"/>
-      <c r="E403" s="12"/>
-      <c r="F403" s="7"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="8"/>
     </row>
     <row r="404" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C404" s="1"/>
       <c r="D404" s="1"/>
-      <c r="E404" s="12"/>
-      <c r="F404" s="7"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="8"/>
     </row>
     <row r="405" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C405" s="1"/>
       <c r="D405" s="1"/>
-      <c r="E405" s="12"/>
-      <c r="F405" s="7"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="8"/>
     </row>
     <row r="406" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C406" s="1"/>
       <c r="D406" s="1"/>
-      <c r="E406" s="12"/>
-      <c r="F406" s="7"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="8"/>
     </row>
     <row r="407" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C407" s="1"/>
       <c r="D407" s="1"/>
-      <c r="E407" s="12"/>
-      <c r="F407" s="7"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="8"/>
     </row>
     <row r="408" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C408" s="1"/>
       <c r="D408" s="1"/>
-      <c r="E408" s="12"/>
-      <c r="F408" s="7"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="8"/>
     </row>
     <row r="409" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C409" s="1"/>
       <c r="D409" s="1"/>
-      <c r="E409" s="12"/>
-      <c r="F409" s="7"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="8"/>
     </row>
     <row r="410" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C410" s="1"/>
       <c r="D410" s="1"/>
-      <c r="E410" s="12"/>
-      <c r="F410" s="7"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="8"/>
     </row>
     <row r="411" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C411" s="1"/>
       <c r="D411" s="1"/>
-      <c r="E411" s="12"/>
-      <c r="F411" s="7"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="8"/>
     </row>
     <row r="412" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C412" s="1"/>
       <c r="D412" s="1"/>
-      <c r="E412" s="12"/>
-      <c r="F412" s="7"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="8"/>
     </row>
     <row r="413" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C413" s="1"/>
       <c r="D413" s="1"/>
-      <c r="E413" s="12"/>
-      <c r="F413" s="7"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="8"/>
     </row>
     <row r="414" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C414" s="1"/>
       <c r="D414" s="1"/>
-      <c r="E414" s="12"/>
-      <c r="F414" s="7"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="8"/>
     </row>
     <row r="415" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C415" s="1"/>
       <c r="D415" s="1"/>
-      <c r="E415" s="12"/>
-      <c r="F415" s="7"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="8"/>
     </row>
     <row r="416" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C416" s="1"/>
       <c r="D416" s="1"/>
-      <c r="E416" s="12"/>
-      <c r="F416" s="7"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="8"/>
     </row>
     <row r="417" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C417" s="1"/>
       <c r="D417" s="1"/>
-      <c r="E417" s="12"/>
-      <c r="F417" s="7"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="8"/>
     </row>
     <row r="418" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C418" s="1"/>
       <c r="D418" s="1"/>
-      <c r="E418" s="12"/>
-      <c r="F418" s="7"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="8"/>
     </row>
     <row r="419" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C419" s="1"/>
       <c r="D419" s="1"/>
-      <c r="E419" s="12"/>
-      <c r="F419" s="7"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="8"/>
     </row>
     <row r="420" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C420" s="1"/>
       <c r="D420" s="1"/>
-      <c r="E420" s="12"/>
-      <c r="F420" s="7"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="8"/>
     </row>
     <row r="421" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C421" s="12"/>
-      <c r="D421" s="7"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="8"/>
     </row>
     <row r="422" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C422" s="12"/>
-      <c r="D422" s="7"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="8"/>
     </row>
     <row r="423" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C423" s="12"/>
-      <c r="D423" s="7"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="8"/>
     </row>
     <row r="424" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C424" s="12"/>
-      <c r="D424" s="7"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="8"/>
     </row>
     <row r="425" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C425" s="12"/>
-      <c r="D425" s="7"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="8"/>
     </row>
     <row r="426" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C426" s="12"/>
-      <c r="D426" s="7"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="8"/>
     </row>
     <row r="427" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C427" s="12"/>
-      <c r="D427" s="7"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="8"/>
     </row>
     <row r="428" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C428" s="12"/>
-      <c r="D428" s="7"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="8"/>
     </row>
     <row r="429" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C429" s="12"/>
-      <c r="D429" s="7"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="8"/>
     </row>
     <row r="430" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C430" s="12"/>
-      <c r="D430" s="7"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="8"/>
     </row>
     <row r="431" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C431" s="12"/>
-      <c r="D431" s="7"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="8"/>
     </row>
     <row r="432" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C432" s="12"/>
-      <c r="D432" s="7"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="8"/>
     </row>
     <row r="433" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C433" s="12"/>
-      <c r="D433" s="7"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="8"/>
     </row>
     <row r="434" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C434" s="12"/>
-      <c r="D434" s="7"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="8"/>
     </row>
     <row r="435" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C435" s="12"/>
-      <c r="D435" s="7"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="8"/>
     </row>
     <row r="436" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C436" s="12"/>
-      <c r="D436" s="7"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="8"/>
     </row>
     <row r="437" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C437" s="12"/>
-      <c r="D437" s="7"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="8"/>
     </row>
     <row r="438" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C438" s="12"/>
-      <c r="D438" s="7"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="8"/>
     </row>
     <row r="439" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C439" s="12"/>
-      <c r="D439" s="7"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="8"/>
     </row>
     <row r="440" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C440" s="12"/>
-      <c r="D440" s="7"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="8"/>
     </row>
     <row r="441" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C441" s="12"/>
-      <c r="D441" s="7"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="8"/>
     </row>
     <row r="442" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C442" s="12"/>
-      <c r="D442" s="7"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="8"/>
     </row>
     <row r="443" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C443" s="12"/>
-      <c r="D443" s="7"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="8"/>
     </row>
     <row r="444" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C444" s="12"/>
-      <c r="D444" s="7"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="8"/>
     </row>
     <row r="445" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C445" s="12"/>
-      <c r="D445" s="7"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="8"/>
     </row>
     <row r="446" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C446" s="12"/>
-      <c r="D446" s="7"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="8"/>
     </row>
     <row r="447" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C447" s="12"/>
-      <c r="D447" s="7"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="8"/>
     </row>
     <row r="448" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C448" s="12"/>
-      <c r="D448" s="7"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="8"/>
     </row>
     <row r="449" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C449" s="12"/>
-      <c r="D449" s="7"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="8"/>
     </row>
     <row r="450" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C450" s="12"/>
-      <c r="D450" s="7"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="8"/>
     </row>
     <row r="451" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C451" s="12"/>
-      <c r="D451" s="7"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="8"/>
     </row>
     <row r="452" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C452" s="12"/>
-      <c r="D452" s="7"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="8"/>
     </row>
     <row r="453" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C453" s="12"/>
-      <c r="D453" s="7"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="8"/>
     </row>
     <row r="454" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C454" s="12"/>
-      <c r="D454" s="7"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="8"/>
     </row>
     <row r="455" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C455" s="12"/>
-      <c r="D455" s="7"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="8"/>
     </row>
     <row r="456" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C456" s="12"/>
-      <c r="D456" s="7"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="8"/>
     </row>
     <row r="457" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C457" s="12"/>
-      <c r="D457" s="7"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="8"/>
     </row>
     <row r="458" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C458" s="12"/>
-      <c r="D458" s="7"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="8"/>
     </row>
     <row r="459" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C459" s="12"/>
-      <c r="D459" s="7"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="8"/>
     </row>
     <row r="460" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C460" s="12"/>
-      <c r="D460" s="7"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="8"/>
     </row>
     <row r="461" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C461" s="12"/>
-      <c r="D461" s="7"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="8"/>
     </row>
     <row r="462" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C462" s="12"/>
-      <c r="D462" s="7"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="8"/>
     </row>
     <row r="463" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C463" s="12"/>
-      <c r="D463" s="7"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="8"/>
     </row>
     <row r="464" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C464" s="12"/>
-      <c r="D464" s="7"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="8"/>
     </row>
     <row r="465" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C465" s="12"/>
-      <c r="D465" s="7"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="8"/>
     </row>
     <row r="466" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C466" s="12"/>
-      <c r="D466" s="7"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="8"/>
     </row>
     <row r="467" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C467" s="12"/>
-      <c r="D467" s="7"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="8"/>
     </row>
     <row r="468" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C468" s="12"/>
-      <c r="D468" s="7"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="8"/>
     </row>
     <row r="469" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C469" s="12"/>
-      <c r="D469" s="7"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="8"/>
     </row>
     <row r="470" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C470" s="12"/>
-      <c r="D470" s="7"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="8"/>
     </row>
     <row r="471" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C471" s="12"/>
-      <c r="D471" s="7"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="8"/>
     </row>
     <row r="472" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C472" s="12"/>
-      <c r="D472" s="7"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="8"/>
     </row>
     <row r="473" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C473" s="12"/>
-      <c r="D473" s="7"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="8"/>
     </row>
     <row r="474" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C474" s="12"/>
-      <c r="D474" s="7"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="8"/>
     </row>
     <row r="475" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C475" s="12"/>
-      <c r="D475" s="7"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="8"/>
     </row>
     <row r="476" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C476" s="12"/>
-      <c r="D476" s="7"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="8"/>
     </row>
     <row r="477" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C477" s="12"/>
-      <c r="D477" s="7"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="8"/>
     </row>
     <row r="478" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C478" s="12"/>
-      <c r="D478" s="7"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="8"/>
     </row>
     <row r="479" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C479" s="12"/>
-      <c r="D479" s="7"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="8"/>
     </row>
     <row r="480" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C480" s="12"/>
-      <c r="D480" s="7"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="8"/>
     </row>
     <row r="481" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C481" s="12"/>
-      <c r="D481" s="7"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="8"/>
     </row>
     <row r="482" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C482" s="12"/>
-      <c r="D482" s="7"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="8"/>
     </row>
     <row r="483" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C483" s="12"/>
-      <c r="D483" s="7"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="8"/>
     </row>
     <row r="484" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C484" s="12"/>
-      <c r="D484" s="7"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="8"/>
     </row>
     <row r="485" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C485" s="12"/>
-      <c r="D485" s="7"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="8"/>
     </row>
     <row r="486" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C486" s="12"/>
-      <c r="D486" s="7"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="8"/>
     </row>
     <row r="487" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C487" s="12"/>
-      <c r="D487" s="7"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="8"/>
     </row>
     <row r="488" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C488" s="12"/>
-      <c r="D488" s="7"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="8"/>
     </row>
     <row r="489" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C489" s="12"/>
-      <c r="D489" s="7"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="8"/>
     </row>
     <row r="490" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C490" s="12"/>
-      <c r="D490" s="7"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="8"/>
     </row>
     <row r="491" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C491" s="12"/>
-      <c r="D491" s="7"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="8"/>
     </row>
     <row r="492" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C492" s="12"/>
-      <c r="D492" s="7"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="8"/>
     </row>
     <row r="493" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C493" s="12"/>
-      <c r="D493" s="7"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="8"/>
     </row>
     <row r="494" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C494" s="12"/>
-      <c r="D494" s="7"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="8"/>
     </row>
     <row r="495" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C495" s="12"/>
-      <c r="D495" s="7"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="8"/>
     </row>
     <row r="496" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C496" s="12"/>
-      <c r="D496" s="7"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="8"/>
     </row>
     <row r="497" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C497" s="12"/>
-      <c r="D497" s="7"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="8"/>
     </row>
     <row r="498" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C498" s="12"/>
-      <c r="D498" s="7"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="8"/>
     </row>
     <row r="499" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C499" s="12"/>
-      <c r="D499" s="7"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="8"/>
     </row>
     <row r="500" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C500" s="12"/>
-      <c r="D500" s="7"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="8"/>
     </row>
     <row r="501" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C501" s="12"/>
-      <c r="D501" s="7"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="8"/>
     </row>
     <row r="502" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C502" s="12"/>
-      <c r="D502" s="7"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="8"/>
     </row>
     <row r="503" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C503" s="12"/>
-      <c r="D503" s="7"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="8"/>
     </row>
     <row r="504" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C504" s="12"/>
-      <c r="D504" s="7"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="8"/>
     </row>
     <row r="505" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C505" s="12"/>
-      <c r="D505" s="7"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="8"/>
     </row>
     <row r="506" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C506" s="12"/>
-      <c r="D506" s="7"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="8"/>
     </row>
     <row r="507" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C507" s="12"/>
-      <c r="D507" s="7"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="8"/>
     </row>
     <row r="508" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C508" s="12"/>
-      <c r="D508" s="7"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="8"/>
     </row>
     <row r="509" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C509" s="12"/>
-      <c r="D509" s="7"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="8"/>
     </row>
     <row r="510" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C510" s="12"/>
-      <c r="D510" s="7"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="8"/>
     </row>
     <row r="511" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C511" s="12"/>
-      <c r="D511" s="7"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="8"/>
     </row>
     <row r="512" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C512" s="12"/>
-      <c r="D512" s="7"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="8"/>
     </row>
     <row r="513" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C513" s="12"/>
-      <c r="D513" s="7"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="8"/>
     </row>
     <row r="514" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C514" s="12"/>
-      <c r="D514" s="7"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="8"/>
     </row>
     <row r="515" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C515" s="12"/>
-      <c r="D515" s="7"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="8"/>
     </row>
     <row r="516" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C516" s="12"/>
-      <c r="D516" s="7"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="8"/>
     </row>
     <row r="517" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C517" s="12"/>
-      <c r="D517" s="7"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="8"/>
     </row>
     <row r="518" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C518" s="12"/>
-      <c r="D518" s="7"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="8"/>
     </row>
     <row r="519" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C519" s="12"/>
-      <c r="D519" s="7"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="8"/>
     </row>
     <row r="520" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C520" s="12"/>
-      <c r="D520" s="7"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="8"/>
     </row>
     <row r="521" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C521" s="12"/>
-      <c r="D521" s="7"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="8"/>
     </row>
     <row r="522" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C522" s="12"/>
-      <c r="D522" s="7"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="8"/>
     </row>
     <row r="523" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C523" s="12"/>
-      <c r="D523" s="7"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="8"/>
     </row>
     <row r="524" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C524" s="12"/>
-      <c r="D524" s="7"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="8"/>
     </row>
     <row r="525" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C525" s="12"/>
-      <c r="D525" s="7"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="8"/>
     </row>
     <row r="526" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C526" s="12"/>
-      <c r="D526" s="7"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="8"/>
     </row>
     <row r="527" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C527" s="12"/>
-      <c r="D527" s="7"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="8"/>
     </row>
     <row r="528" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C528" s="12"/>
-      <c r="D528" s="7"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="8"/>
     </row>
     <row r="529" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C529" s="12"/>
-      <c r="D529" s="7"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="8"/>
     </row>
     <row r="530" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C530" s="12"/>
-      <c r="D530" s="7"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="8"/>
     </row>
     <row r="531" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C531" s="12"/>
-      <c r="D531" s="7"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="8"/>
     </row>
     <row r="532" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C532" s="12"/>
-      <c r="D532" s="7"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="8"/>
     </row>
     <row r="533" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C533" s="12"/>
-      <c r="D533" s="7"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="8"/>
     </row>
     <row r="534" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C534" s="12"/>
-      <c r="D534" s="7"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="8"/>
     </row>
     <row r="535" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C535" s="12"/>
-      <c r="D535" s="7"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="8"/>
     </row>
     <row r="536" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C536" s="12"/>
-      <c r="D536" s="7"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="8"/>
     </row>
     <row r="537" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C537" s="12"/>
-      <c r="D537" s="7"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="8"/>
     </row>
     <row r="538" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C538" s="12"/>
-      <c r="D538" s="7"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="8"/>
     </row>
     <row r="539" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C539" s="12"/>
-      <c r="D539" s="7"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="8"/>
     </row>
     <row r="540" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C540" s="12"/>
-      <c r="D540" s="7"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="8"/>
     </row>
     <row r="541" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C541" s="12"/>
-      <c r="D541" s="7"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="8"/>
     </row>
     <row r="542" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C542" s="12"/>
-      <c r="D542" s="7"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="8"/>
     </row>
     <row r="543" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C543" s="12"/>
-      <c r="D543" s="7"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="8"/>
     </row>
     <row r="544" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C544" s="12"/>
-      <c r="D544" s="7"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="8"/>
     </row>
     <row r="545" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C545" s="12"/>
-      <c r="D545" s="7"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="8"/>
     </row>
     <row r="546" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C546" s="12"/>
-      <c r="D546" s="7"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="8"/>
     </row>
     <row r="547" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C547" s="12"/>
-      <c r="D547" s="7"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="8"/>
     </row>
     <row r="548" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C548" s="12"/>
-      <c r="D548" s="7"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="8"/>
     </row>
     <row r="549" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C549" s="12"/>
-      <c r="D549" s="7"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="8"/>
     </row>
     <row r="550" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C550" s="12"/>
-      <c r="D550" s="7"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="8"/>
     </row>
     <row r="551" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C551" s="12"/>
-      <c r="D551" s="7"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="8"/>
     </row>
     <row r="552" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C552" s="12"/>
-      <c r="D552" s="7"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="8"/>
     </row>
     <row r="553" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C553" s="12"/>
-      <c r="D553" s="7"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="8"/>
     </row>
     <row r="554" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C554" s="12"/>
-      <c r="D554" s="7"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="8"/>
     </row>
     <row r="555" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C555" s="12"/>
-      <c r="D555" s="7"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="8"/>
     </row>
     <row r="556" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C556" s="12"/>
-      <c r="D556" s="7"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="8"/>
     </row>
     <row r="557" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C557" s="12"/>
-      <c r="D557" s="7"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="8"/>
     </row>
     <row r="558" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C558" s="12"/>
-      <c r="D558" s="7"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="8"/>
     </row>
     <row r="559" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C559" s="12"/>
-      <c r="D559" s="7"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="8"/>
     </row>
     <row r="560" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C560" s="12"/>
-      <c r="D560" s="7"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="8"/>
     </row>
     <row r="561" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C561" s="12"/>
-      <c r="D561" s="7"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="8"/>
     </row>
     <row r="562" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C562" s="12"/>
-      <c r="D562" s="7"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="8"/>
     </row>
     <row r="563" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C563" s="12"/>
-      <c r="D563" s="7"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="8"/>
     </row>
     <row r="564" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C564" s="12"/>
-      <c r="D564" s="7"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="8"/>
     </row>
     <row r="565" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C565" s="12"/>
-      <c r="D565" s="7"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="8"/>
     </row>
     <row r="566" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C566" s="12"/>
-      <c r="D566" s="7"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="8"/>
     </row>
     <row r="567" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C567" s="12"/>
-      <c r="D567" s="7"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="8"/>
     </row>
     <row r="568" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C568" s="12"/>
-      <c r="D568" s="7"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="8"/>
     </row>
     <row r="569" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C569" s="12"/>
-      <c r="D569" s="7"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="8"/>
     </row>
     <row r="570" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C570" s="12"/>
-      <c r="D570" s="7"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="8"/>
     </row>
     <row r="571" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C571" s="12"/>
-      <c r="D571" s="7"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="8"/>
     </row>
     <row r="572" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C572" s="12"/>
-      <c r="D572" s="7"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="8"/>
     </row>
     <row r="573" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C573" s="12"/>
-      <c r="D573" s="7"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="8"/>
     </row>
     <row r="574" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C574" s="12"/>
-      <c r="D574" s="7"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="8"/>
     </row>
     <row r="575" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C575" s="12"/>
-      <c r="D575" s="7"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="8"/>
     </row>
     <row r="576" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C576" s="12"/>
-      <c r="D576" s="7"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="8"/>
     </row>
     <row r="577" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C577" s="12"/>
-      <c r="D577" s="7"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="8"/>
     </row>
     <row r="578" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C578" s="12"/>
-      <c r="D578" s="7"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="8"/>
     </row>
     <row r="579" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C579" s="12"/>
-      <c r="D579" s="7"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="8"/>
     </row>
     <row r="580" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C580" s="12"/>
-      <c r="D580" s="7"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="8"/>
     </row>
     <row r="581" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C581" s="12"/>
-      <c r="D581" s="7"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="8"/>
     </row>
     <row r="582" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C582" s="12"/>
-      <c r="D582" s="7"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="8"/>
     </row>
     <row r="583" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C583" s="12"/>
-      <c r="D583" s="7"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="8"/>
     </row>
     <row r="584" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C584" s="12"/>
-      <c r="D584" s="7"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="8"/>
     </row>
     <row r="585" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C585" s="12"/>
-      <c r="D585" s="7"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="8"/>
     </row>
     <row r="586" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C586" s="12"/>
-      <c r="D586" s="7"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="8"/>
     </row>
     <row r="587" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C587" s="12"/>
-      <c r="D587" s="7"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="8"/>
     </row>
     <row r="588" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C588" s="12"/>
-      <c r="D588" s="7"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="8"/>
     </row>
     <row r="589" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C589" s="12"/>
-      <c r="D589" s="7"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="8"/>
     </row>
     <row r="590" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C590" s="12"/>
-      <c r="D590" s="7"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="8"/>
     </row>
     <row r="591" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C591" s="12"/>
-      <c r="D591" s="7"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="8"/>
     </row>
     <row r="592" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C592" s="12"/>
-      <c r="D592" s="7"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="8"/>
     </row>
     <row r="593" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C593" s="12"/>
-      <c r="D593" s="7"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="8"/>
     </row>
     <row r="594" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C594" s="12"/>
-      <c r="D594" s="7"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="8"/>
     </row>
     <row r="595" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C595" s="12"/>
-      <c r="D595" s="7"/>
+      <c r="C595" s="13"/>
+      <c r="D595" s="8"/>
     </row>
     <row r="596" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C596" s="12"/>
-      <c r="D596" s="7"/>
+      <c r="C596" s="13"/>
+      <c r="D596" s="8"/>
     </row>
     <row r="597" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C597" s="12"/>
-      <c r="D597" s="7"/>
+      <c r="C597" s="13"/>
+      <c r="D597" s="8"/>
     </row>
     <row r="598" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C598" s="12"/>
-      <c r="D598" s="7"/>
+      <c r="C598" s="13"/>
+      <c r="D598" s="8"/>
     </row>
     <row r="599" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C599" s="12"/>
-      <c r="D599" s="7"/>
+      <c r="C599" s="13"/>
+      <c r="D599" s="8"/>
     </row>
     <row r="600" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C600" s="12"/>
-      <c r="D600" s="7"/>
+      <c r="C600" s="13"/>
+      <c r="D600" s="8"/>
     </row>
     <row r="601" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C601" s="12"/>
-      <c r="D601" s="7"/>
+      <c r="C601" s="13"/>
+      <c r="D601" s="8"/>
     </row>
     <row r="602" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C602" s="12"/>
-      <c r="D602" s="7"/>
+      <c r="C602" s="13"/>
+      <c r="D602" s="8"/>
     </row>
     <row r="603" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C603" s="12"/>
-      <c r="D603" s="7"/>
+      <c r="C603" s="13"/>
+      <c r="D603" s="8"/>
     </row>
     <row r="604" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C604" s="12"/>
-      <c r="D604" s="7"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="8"/>
     </row>
     <row r="605" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C605" s="12"/>
-      <c r="D605" s="7"/>
+      <c r="C605" s="13"/>
+      <c r="D605" s="8"/>
     </row>
     <row r="606" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C606" s="12"/>
-      <c r="D606" s="7"/>
+      <c r="C606" s="13"/>
+      <c r="D606" s="8"/>
     </row>
     <row r="607" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C607" s="12"/>
-      <c r="D607" s="7"/>
+      <c r="C607" s="13"/>
+      <c r="D607" s="8"/>
     </row>
     <row r="608" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C608" s="12"/>
-      <c r="D608" s="7"/>
+      <c r="C608" s="13"/>
+      <c r="D608" s="8"/>
     </row>
     <row r="609" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C609" s="12"/>
-      <c r="D609" s="7"/>
+      <c r="C609" s="13"/>
+      <c r="D609" s="8"/>
     </row>
     <row r="610" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C610" s="12"/>
-      <c r="D610" s="7"/>
+      <c r="C610" s="13"/>
+      <c r="D610" s="8"/>
     </row>
     <row r="611" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C611" s="12"/>
-      <c r="D611" s="7"/>
+      <c r="C611" s="13"/>
+      <c r="D611" s="8"/>
     </row>
     <row r="612" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C612" s="12"/>
-      <c r="D612" s="7"/>
+      <c r="C612" s="13"/>
+      <c r="D612" s="8"/>
     </row>
     <row r="613" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C613" s="12"/>
-      <c r="D613" s="7"/>
+      <c r="C613" s="13"/>
+      <c r="D613" s="8"/>
     </row>
     <row r="614" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C614" s="12"/>
-      <c r="D614" s="7"/>
+      <c r="C614" s="13"/>
+      <c r="D614" s="8"/>
     </row>
     <row r="615" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C615" s="12"/>
-      <c r="D615" s="7"/>
+      <c r="C615" s="13"/>
+      <c r="D615" s="8"/>
     </row>
     <row r="616" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C616" s="12"/>
-      <c r="D616" s="7"/>
+      <c r="C616" s="13"/>
+      <c r="D616" s="8"/>
     </row>
     <row r="617" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C617" s="12"/>
-      <c r="D617" s="7"/>
+      <c r="C617" s="13"/>
+      <c r="D617" s="8"/>
     </row>
     <row r="618" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C618" s="12"/>
-      <c r="D618" s="7"/>
+      <c r="C618" s="13"/>
+      <c r="D618" s="8"/>
     </row>
     <row r="619" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C619" s="12"/>
-      <c r="D619" s="7"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="8"/>
     </row>
     <row r="620" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C620" s="12"/>
-      <c r="D620" s="7"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="8"/>
     </row>
     <row r="621" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C621" s="12"/>
-      <c r="D621" s="7"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="8"/>
     </row>
     <row r="622" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C622" s="12"/>
-      <c r="D622" s="7"/>
+      <c r="C622" s="13"/>
+      <c r="D622" s="8"/>
     </row>
     <row r="623" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C623" s="12"/>
-      <c r="D623" s="7"/>
+      <c r="C623" s="13"/>
+      <c r="D623" s="8"/>
     </row>
     <row r="624" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C624" s="12"/>
-      <c r="D624" s="7"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="8"/>
     </row>
     <row r="625" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C625" s="12"/>
-      <c r="D625" s="7"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="8"/>
     </row>
     <row r="626" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C626" s="12"/>
-      <c r="D626" s="7"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="8"/>
     </row>
     <row r="627" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C627" s="12"/>
-      <c r="D627" s="7"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="8"/>
     </row>
     <row r="628" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C628" s="12"/>
-      <c r="D628" s="7"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="8"/>
     </row>
     <row r="629" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C629" s="12"/>
-      <c r="D629" s="7"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="8"/>
     </row>
     <row r="630" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C630" s="12"/>
-      <c r="D630" s="7"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="8"/>
     </row>
     <row r="631" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C631" s="12"/>
-      <c r="D631" s="7"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="8"/>
     </row>
     <row r="632" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C632" s="12"/>
-      <c r="D632" s="7"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="8"/>
     </row>
     <row r="633" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C633" s="12"/>
-      <c r="D633" s="7"/>
+      <c r="C633" s="13"/>
+      <c r="D633" s="8"/>
     </row>
     <row r="634" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C634" s="12"/>
-      <c r="D634" s="7"/>
+      <c r="C634" s="13"/>
+      <c r="D634" s="8"/>
     </row>
     <row r="635" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C635" s="12"/>
-      <c r="D635" s="7"/>
+      <c r="C635" s="13"/>
+      <c r="D635" s="8"/>
     </row>
     <row r="636" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C636" s="12"/>
-      <c r="D636" s="7"/>
+      <c r="C636" s="13"/>
+      <c r="D636" s="8"/>
     </row>
     <row r="637" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C637" s="12"/>
-      <c r="D637" s="7"/>
+      <c r="C637" s="13"/>
+      <c r="D637" s="8"/>
     </row>
     <row r="638" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C638" s="12"/>
-      <c r="D638" s="7"/>
+      <c r="C638" s="13"/>
+      <c r="D638" s="8"/>
     </row>
     <row r="639" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C639" s="12"/>
-      <c r="D639" s="7"/>
+      <c r="C639" s="13"/>
+      <c r="D639" s="8"/>
     </row>
     <row r="640" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C640" s="12"/>
-      <c r="D640" s="7"/>
+      <c r="C640" s="13"/>
+      <c r="D640" s="8"/>
     </row>
     <row r="641" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C641" s="12"/>
-      <c r="D641" s="7"/>
+      <c r="C641" s="13"/>
+      <c r="D641" s="8"/>
     </row>
     <row r="642" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C642" s="12"/>
-      <c r="D642" s="7"/>
+      <c r="C642" s="13"/>
+      <c r="D642" s="8"/>
     </row>
     <row r="643" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C643" s="12"/>
-      <c r="D643" s="7"/>
+      <c r="C643" s="13"/>
+      <c r="D643" s="8"/>
     </row>
     <row r="644" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C644" s="12"/>
-      <c r="D644" s="7"/>
+      <c r="C644" s="13"/>
+      <c r="D644" s="8"/>
     </row>
     <row r="645" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C645" s="12"/>
-      <c r="D645" s="7"/>
+      <c r="C645" s="13"/>
+      <c r="D645" s="8"/>
     </row>
     <row r="646" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C646" s="12"/>
-      <c r="D646" s="7"/>
+      <c r="C646" s="13"/>
+      <c r="D646" s="8"/>
     </row>
     <row r="647" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C647" s="12"/>
-      <c r="D647" s="7"/>
+      <c r="C647" s="13"/>
+      <c r="D647" s="8"/>
     </row>
     <row r="648" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C648" s="12"/>
-      <c r="D648" s="7"/>
+      <c r="C648" s="13"/>
+      <c r="D648" s="8"/>
     </row>
     <row r="649" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C649" s="12"/>
-      <c r="D649" s="7"/>
+      <c r="C649" s="13"/>
+      <c r="D649" s="8"/>
     </row>
     <row r="650" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C650" s="12"/>
-      <c r="D650" s="7"/>
+      <c r="C650" s="13"/>
+      <c r="D650" s="8"/>
     </row>
     <row r="651" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C651" s="12"/>
-      <c r="D651" s="7"/>
+      <c r="C651" s="13"/>
+      <c r="D651" s="8"/>
     </row>
     <row r="652" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C652" s="12"/>
-      <c r="D652" s="7"/>
+      <c r="C652" s="13"/>
+      <c r="D652" s="8"/>
     </row>
     <row r="653" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C653" s="12"/>
-      <c r="D653" s="7"/>
+      <c r="C653" s="13"/>
+      <c r="D653" s="8"/>
     </row>
     <row r="654" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C654" s="12"/>
-      <c r="D654" s="7"/>
+      <c r="C654" s="13"/>
+      <c r="D654" s="8"/>
     </row>
     <row r="655" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C655" s="12"/>
-      <c r="D655" s="7"/>
+      <c r="C655" s="13"/>
+      <c r="D655" s="8"/>
     </row>
     <row r="656" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C656" s="12"/>
-      <c r="D656" s="7"/>
+      <c r="C656" s="13"/>
+      <c r="D656" s="8"/>
     </row>
     <row r="657" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C657" s="12"/>
-      <c r="D657" s="7"/>
+      <c r="C657" s="13"/>
+      <c r="D657" s="8"/>
     </row>
     <row r="658" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C658" s="12"/>
-      <c r="D658" s="7"/>
+      <c r="C658" s="13"/>
+      <c r="D658" s="8"/>
     </row>
     <row r="659" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C659" s="12"/>
-      <c r="D659" s="7"/>
+      <c r="C659" s="13"/>
+      <c r="D659" s="8"/>
     </row>
     <row r="660" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C660" s="12"/>
-      <c r="D660" s="7"/>
+      <c r="C660" s="13"/>
+      <c r="D660" s="8"/>
     </row>
     <row r="661" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C661" s="12"/>
-      <c r="D661" s="7"/>
+      <c r="C661" s="13"/>
+      <c r="D661" s="8"/>
     </row>
     <row r="662" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C662" s="12"/>
-      <c r="D662" s="7"/>
+      <c r="C662" s="13"/>
+      <c r="D662" s="8"/>
     </row>
     <row r="663" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C663" s="12"/>
-      <c r="D663" s="7"/>
+      <c r="C663" s="13"/>
+      <c r="D663" s="8"/>
     </row>
     <row r="664" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C664" s="12"/>
-      <c r="D664" s="7"/>
+      <c r="C664" s="13"/>
+      <c r="D664" s="8"/>
     </row>
     <row r="665" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C665" s="12"/>
-      <c r="D665" s="7"/>
+      <c r="C665" s="13"/>
+      <c r="D665" s="8"/>
     </row>
     <row r="666" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C666" s="12"/>
-      <c r="D666" s="7"/>
+      <c r="C666" s="13"/>
+      <c r="D666" s="8"/>
     </row>
     <row r="667" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C667" s="12"/>
-      <c r="D667" s="7"/>
+      <c r="C667" s="13"/>
+      <c r="D667" s="8"/>
     </row>
     <row r="668" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C668" s="12"/>
-      <c r="D668" s="7"/>
+      <c r="C668" s="13"/>
+      <c r="D668" s="8"/>
     </row>
     <row r="669" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C669" s="12"/>
-      <c r="D669" s="7"/>
+      <c r="C669" s="13"/>
+      <c r="D669" s="8"/>
     </row>
     <row r="670" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C670" s="12"/>
-      <c r="D670" s="7"/>
+      <c r="C670" s="13"/>
+      <c r="D670" s="8"/>
     </row>
     <row r="671" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C671" s="12"/>
-      <c r="D671" s="7"/>
+      <c r="C671" s="13"/>
+      <c r="D671" s="8"/>
     </row>
     <row r="672" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C672" s="12"/>
-      <c r="D672" s="7"/>
+      <c r="C672" s="13"/>
+      <c r="D672" s="8"/>
     </row>
     <row r="673" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C673" s="12"/>
-      <c r="D673" s="7"/>
+      <c r="C673" s="13"/>
+      <c r="D673" s="8"/>
     </row>
     <row r="674" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C674" s="12"/>
-      <c r="D674" s="7"/>
+      <c r="C674" s="13"/>
+      <c r="D674" s="8"/>
     </row>
     <row r="675" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C675" s="12"/>
-      <c r="D675" s="7"/>
+      <c r="C675" s="13"/>
+      <c r="D675" s="8"/>
     </row>
     <row r="676" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C676" s="12"/>
-      <c r="D676" s="7"/>
+      <c r="C676" s="13"/>
+      <c r="D676" s="8"/>
     </row>
     <row r="677" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C677" s="12"/>
-      <c r="D677" s="7"/>
+      <c r="C677" s="13"/>
+      <c r="D677" s="8"/>
     </row>
     <row r="678" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C678" s="12"/>
-      <c r="D678" s="7"/>
+      <c r="C678" s="13"/>
+      <c r="D678" s="8"/>
     </row>
     <row r="679" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C679" s="12"/>
-      <c r="D679" s="7"/>
+      <c r="C679" s="13"/>
+      <c r="D679" s="8"/>
     </row>
     <row r="680" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C680" s="12"/>
-      <c r="D680" s="7"/>
+      <c r="C680" s="13"/>
+      <c r="D680" s="8"/>
     </row>
     <row r="681" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C681" s="12"/>
-      <c r="D681" s="7"/>
+      <c r="C681" s="13"/>
+      <c r="D681" s="8"/>
     </row>
     <row r="682" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C682" s="12"/>
-      <c r="D682" s="7"/>
+      <c r="C682" s="13"/>
+      <c r="D682" s="8"/>
     </row>
     <row r="683" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C683" s="12"/>
-      <c r="D683" s="7"/>
+      <c r="C683" s="13"/>
+      <c r="D683" s="8"/>
     </row>
     <row r="684" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C684" s="12"/>
-      <c r="D684" s="7"/>
+      <c r="C684" s="13"/>
+      <c r="D684" s="8"/>
     </row>
     <row r="685" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C685" s="12"/>
-      <c r="D685" s="7"/>
+      <c r="C685" s="13"/>
+      <c r="D685" s="8"/>
     </row>
     <row r="686" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C686" s="12"/>
-      <c r="D686" s="7"/>
+      <c r="C686" s="13"/>
+      <c r="D686" s="8"/>
     </row>
     <row r="687" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C687" s="12"/>
-      <c r="D687" s="7"/>
+      <c r="C687" s="13"/>
+      <c r="D687" s="8"/>
     </row>
     <row r="688" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C688" s="12"/>
-      <c r="D688" s="7"/>
+      <c r="C688" s="13"/>
+      <c r="D688" s="8"/>
     </row>
     <row r="689" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C689" s="12"/>
-      <c r="D689" s="7"/>
+      <c r="C689" s="13"/>
+      <c r="D689" s="8"/>
     </row>
     <row r="690" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C690" s="12"/>
-      <c r="D690" s="7"/>
+      <c r="C690" s="13"/>
+      <c r="D690" s="8"/>
     </row>
     <row r="691" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C691" s="12"/>
-      <c r="D691" s="7"/>
+      <c r="C691" s="13"/>
+      <c r="D691" s="8"/>
     </row>
     <row r="692" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C692" s="12"/>
-      <c r="D692" s="7"/>
+      <c r="C692" s="13"/>
+      <c r="D692" s="8"/>
     </row>
     <row r="693" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C693" s="12"/>
-      <c r="D693" s="7"/>
+      <c r="C693" s="13"/>
+      <c r="D693" s="8"/>
     </row>
     <row r="694" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C694" s="12"/>
-      <c r="D694" s="7"/>
+      <c r="C694" s="13"/>
+      <c r="D694" s="8"/>
     </row>
     <row r="695" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C695" s="12"/>
-      <c r="D695" s="7"/>
+      <c r="C695" s="13"/>
+      <c r="D695" s="8"/>
     </row>
     <row r="696" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C696" s="12"/>
-      <c r="D696" s="7"/>
+      <c r="C696" s="13"/>
+      <c r="D696" s="8"/>
     </row>
     <row r="697" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C697" s="12"/>
-      <c r="D697" s="7"/>
+      <c r="C697" s="13"/>
+      <c r="D697" s="8"/>
     </row>
     <row r="698" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C698" s="12"/>
-      <c r="D698" s="7"/>
+      <c r="C698" s="13"/>
+      <c r="D698" s="8"/>
     </row>
     <row r="699" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C699" s="12"/>
-      <c r="D699" s="7"/>
+      <c r="C699" s="13"/>
+      <c r="D699" s="8"/>
     </row>
     <row r="700" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C700" s="12"/>
-      <c r="D700" s="7"/>
+      <c r="C700" s="13"/>
+      <c r="D700" s="8"/>
     </row>
     <row r="701" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C701" s="12"/>
-      <c r="D701" s="7"/>
+      <c r="C701" s="13"/>
+      <c r="D701" s="8"/>
     </row>
     <row r="702" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C702" s="12"/>
-      <c r="D702" s="7"/>
+      <c r="C702" s="13"/>
+      <c r="D702" s="8"/>
     </row>
     <row r="703" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C703" s="12"/>
-      <c r="D703" s="7"/>
+      <c r="C703" s="13"/>
+      <c r="D703" s="8"/>
     </row>
     <row r="704" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C704" s="12"/>
-      <c r="D704" s="7"/>
+      <c r="C704" s="13"/>
+      <c r="D704" s="8"/>
     </row>
     <row r="705" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C705" s="12"/>
-      <c r="D705" s="7"/>
+      <c r="C705" s="13"/>
+      <c r="D705" s="8"/>
     </row>
     <row r="706" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C706" s="12"/>
-      <c r="D706" s="7"/>
+      <c r="C706" s="13"/>
+      <c r="D706" s="8"/>
     </row>
     <row r="707" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C707" s="12"/>
-      <c r="D707" s="7"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="8"/>
     </row>
     <row r="708" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C708" s="12"/>
-      <c r="D708" s="7"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="8"/>
     </row>
     <row r="709" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C709" s="12"/>
-      <c r="D709" s="7"/>
+      <c r="C709" s="13"/>
+      <c r="D709" s="8"/>
     </row>
     <row r="710" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C710" s="12"/>
-      <c r="D710" s="7"/>
+      <c r="C710" s="13"/>
+      <c r="D710" s="8"/>
     </row>
     <row r="711" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C711" s="12"/>
-      <c r="D711" s="7"/>
+      <c r="C711" s="13"/>
+      <c r="D711" s="8"/>
     </row>
     <row r="712" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C712" s="12"/>
-      <c r="D712" s="7"/>
+      <c r="C712" s="13"/>
+      <c r="D712" s="8"/>
     </row>
     <row r="713" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C713" s="12"/>
-      <c r="D713" s="7"/>
+      <c r="C713" s="13"/>
+      <c r="D713" s="8"/>
     </row>
     <row r="714" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C714" s="12"/>
-      <c r="D714" s="7"/>
+      <c r="C714" s="13"/>
+      <c r="D714" s="8"/>
     </row>
     <row r="715" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C715" s="12"/>
-      <c r="D715" s="7"/>
+      <c r="C715" s="13"/>
+      <c r="D715" s="8"/>
     </row>
     <row r="716" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C716" s="12"/>
-      <c r="D716" s="7"/>
+      <c r="C716" s="13"/>
+      <c r="D716" s="8"/>
     </row>
     <row r="717" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C717" s="12"/>
-      <c r="D717" s="7"/>
+      <c r="C717" s="13"/>
+      <c r="D717" s="8"/>
     </row>
     <row r="718" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C718" s="12"/>
-      <c r="D718" s="7"/>
+      <c r="C718" s="13"/>
+      <c r="D718" s="8"/>
     </row>
     <row r="719" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C719" s="12"/>
-      <c r="D719" s="7"/>
+      <c r="C719" s="13"/>
+      <c r="D719" s="8"/>
     </row>
     <row r="720" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C720" s="12"/>
-      <c r="D720" s="7"/>
+      <c r="C720" s="13"/>
+      <c r="D720" s="8"/>
     </row>
     <row r="721" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C721" s="12"/>
-      <c r="D721" s="7"/>
+      <c r="C721" s="13"/>
+      <c r="D721" s="8"/>
     </row>
     <row r="722" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C722" s="12"/>
-      <c r="D722" s="7"/>
+      <c r="C722" s="13"/>
+      <c r="D722" s="8"/>
     </row>
     <row r="723" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C723" s="12"/>
-      <c r="D723" s="7"/>
+      <c r="C723" s="13"/>
+      <c r="D723" s="8"/>
     </row>
     <row r="724" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C724" s="12"/>
-      <c r="D724" s="7"/>
+      <c r="C724" s="13"/>
+      <c r="D724" s="8"/>
     </row>
     <row r="725" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C725" s="12"/>
-      <c r="D725" s="7"/>
+      <c r="C725" s="13"/>
+      <c r="D725" s="8"/>
     </row>
     <row r="726" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C726" s="12"/>
-      <c r="D726" s="7"/>
+      <c r="C726" s="13"/>
+      <c r="D726" s="8"/>
     </row>
     <row r="727" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C727" s="12"/>
-      <c r="D727" s="7"/>
+      <c r="C727" s="13"/>
+      <c r="D727" s="8"/>
     </row>
     <row r="728" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C728" s="12"/>
-      <c r="D728" s="7"/>
+      <c r="C728" s="13"/>
+      <c r="D728" s="8"/>
     </row>
     <row r="729" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C729" s="12"/>
-      <c r="D729" s="7"/>
+      <c r="C729" s="13"/>
+      <c r="D729" s="8"/>
     </row>
     <row r="730" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C730" s="12"/>
-      <c r="D730" s="7"/>
+      <c r="C730" s="13"/>
+      <c r="D730" s="8"/>
     </row>
     <row r="731" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C731" s="12"/>
-      <c r="D731" s="7"/>
+      <c r="C731" s="13"/>
+      <c r="D731" s="8"/>
     </row>
     <row r="732" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C732" s="12"/>
-      <c r="D732" s="7"/>
+      <c r="C732" s="13"/>
+      <c r="D732" s="8"/>
     </row>
     <row r="733" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C733" s="12"/>
-      <c r="D733" s="7"/>
+      <c r="C733" s="13"/>
+      <c r="D733" s="8"/>
     </row>
     <row r="734" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C734" s="12"/>
-      <c r="D734" s="7"/>
+      <c r="C734" s="13"/>
+      <c r="D734" s="8"/>
     </row>
     <row r="735" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C735" s="12"/>
-      <c r="D735" s="7"/>
+      <c r="C735" s="13"/>
+      <c r="D735" s="8"/>
     </row>
     <row r="736" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C736" s="12"/>
-      <c r="D736" s="7"/>
+      <c r="C736" s="13"/>
+      <c r="D736" s="8"/>
     </row>
     <row r="737" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C737" s="12"/>
-      <c r="D737" s="7"/>
+      <c r="C737" s="13"/>
+      <c r="D737" s="8"/>
     </row>
     <row r="738" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C738" s="12"/>
-      <c r="D738" s="7"/>
+      <c r="C738" s="13"/>
+      <c r="D738" s="8"/>
     </row>
     <row r="739" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C739" s="12"/>
-      <c r="D739" s="7"/>
+      <c r="C739" s="13"/>
+      <c r="D739" s="8"/>
     </row>
     <row r="740" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C740" s="12"/>
-      <c r="D740" s="7"/>
+      <c r="C740" s="13"/>
+      <c r="D740" s="8"/>
     </row>
     <row r="741" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C741" s="12"/>
-      <c r="D741" s="7"/>
+      <c r="C741" s="13"/>
+      <c r="D741" s="8"/>
     </row>
     <row r="742" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C742" s="12"/>
-      <c r="D742" s="7"/>
+      <c r="C742" s="13"/>
+      <c r="D742" s="8"/>
     </row>
     <row r="743" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C743" s="12"/>
-      <c r="D743" s="7"/>
+      <c r="C743" s="13"/>
+      <c r="D743" s="8"/>
     </row>
     <row r="744" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C744" s="12"/>
-      <c r="D744" s="7"/>
+      <c r="C744" s="13"/>
+      <c r="D744" s="8"/>
     </row>
     <row r="745" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C745" s="12"/>
-      <c r="D745" s="7"/>
+      <c r="C745" s="13"/>
+      <c r="D745" s="8"/>
     </row>
     <row r="746" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C746" s="12"/>
-      <c r="D746" s="7"/>
+      <c r="C746" s="13"/>
+      <c r="D746" s="8"/>
     </row>
     <row r="747" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C747" s="12"/>
-      <c r="D747" s="7"/>
+      <c r="C747" s="13"/>
+      <c r="D747" s="8"/>
     </row>
     <row r="748" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C748" s="12"/>
-      <c r="D748" s="7"/>
+      <c r="C748" s="13"/>
+      <c r="D748" s="8"/>
     </row>
     <row r="749" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C749" s="12"/>
-      <c r="D749" s="7"/>
+      <c r="C749" s="13"/>
+      <c r="D749" s="8"/>
     </row>
     <row r="750" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C750" s="12"/>
-      <c r="D750" s="7"/>
+      <c r="C750" s="13"/>
+      <c r="D750" s="8"/>
     </row>
     <row r="751" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C751" s="12"/>
-      <c r="D751" s="7"/>
+      <c r="C751" s="13"/>
+      <c r="D751" s="8"/>
     </row>
     <row r="752" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C752" s="12"/>
-      <c r="D752" s="7"/>
+      <c r="C752" s="13"/>
+      <c r="D752" s="8"/>
     </row>
     <row r="753" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C753" s="12"/>
-      <c r="D753" s="7"/>
+      <c r="C753" s="13"/>
+      <c r="D753" s="8"/>
     </row>
     <row r="754" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C754" s="12"/>
-      <c r="D754" s="7"/>
+      <c r="C754" s="13"/>
+      <c r="D754" s="8"/>
     </row>
     <row r="755" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C755" s="12"/>
-      <c r="D755" s="7"/>
+      <c r="C755" s="13"/>
+      <c r="D755" s="8"/>
     </row>
     <row r="756" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C756" s="12"/>
-      <c r="D756" s="7"/>
+      <c r="C756" s="13"/>
+      <c r="D756" s="8"/>
     </row>
     <row r="757" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C757" s="12"/>
-      <c r="D757" s="7"/>
+      <c r="C757" s="13"/>
+      <c r="D757" s="8"/>
     </row>
     <row r="758" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C758" s="12"/>
-      <c r="D758" s="7"/>
+      <c r="C758" s="13"/>
+      <c r="D758" s="8"/>
     </row>
     <row r="759" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C759" s="12"/>
-      <c r="D759" s="7"/>
+      <c r="C759" s="13"/>
+      <c r="D759" s="8"/>
     </row>
     <row r="760" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C760" s="12"/>
-      <c r="D760" s="7"/>
+      <c r="C760" s="13"/>
+      <c r="D760" s="8"/>
     </row>
     <row r="761" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C761" s="12"/>
-      <c r="D761" s="7"/>
+      <c r="C761" s="13"/>
+      <c r="D761" s="8"/>
     </row>
     <row r="762" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C762" s="12"/>
-      <c r="D762" s="7"/>
+      <c r="C762" s="13"/>
+      <c r="D762" s="8"/>
     </row>
     <row r="763" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C763" s="12"/>
-      <c r="D763" s="7"/>
+      <c r="C763" s="13"/>
+      <c r="D763" s="8"/>
     </row>
     <row r="764" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C764" s="12"/>
-      <c r="D764" s="7"/>
+      <c r="C764" s="13"/>
+      <c r="D764" s="8"/>
     </row>
     <row r="765" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C765" s="12"/>
-      <c r="D765" s="7"/>
+      <c r="C765" s="13"/>
+      <c r="D765" s="8"/>
     </row>
     <row r="766" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C766" s="12"/>
-      <c r="D766" s="7"/>
+      <c r="C766" s="13"/>
+      <c r="D766" s="8"/>
     </row>
     <row r="767" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C767" s="12"/>
-      <c r="D767" s="7"/>
+      <c r="C767" s="13"/>
+      <c r="D767" s="8"/>
     </row>
     <row r="768" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C768" s="12"/>
-      <c r="D768" s="7"/>
+      <c r="C768" s="13"/>
+      <c r="D768" s="8"/>
     </row>
     <row r="769" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C769" s="12"/>
-      <c r="D769" s="7"/>
+      <c r="C769" s="13"/>
+      <c r="D769" s="8"/>
     </row>
     <row r="770" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C770" s="12"/>
-      <c r="D770" s="7"/>
+      <c r="C770" s="13"/>
+      <c r="D770" s="8"/>
     </row>
     <row r="771" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C771" s="12"/>
-      <c r="D771" s="7"/>
+      <c r="C771" s="13"/>
+      <c r="D771" s="8"/>
     </row>
     <row r="772" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C772" s="12"/>
-      <c r="D772" s="7"/>
+      <c r="C772" s="13"/>
+      <c r="D772" s="8"/>
     </row>
     <row r="773" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C773" s="12"/>
-      <c r="D773" s="7"/>
+      <c r="C773" s="13"/>
+      <c r="D773" s="8"/>
     </row>
     <row r="774" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C774" s="12"/>
-      <c r="D774" s="7"/>
+      <c r="C774" s="13"/>
+      <c r="D774" s="8"/>
     </row>
     <row r="775" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C775" s="12"/>
-      <c r="D775" s="7"/>
+      <c r="C775" s="13"/>
+      <c r="D775" s="8"/>
     </row>
     <row r="776" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C776" s="12"/>
-      <c r="D776" s="7"/>
+      <c r="C776" s="13"/>
+      <c r="D776" s="8"/>
     </row>
     <row r="777" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C777" s="12"/>
-      <c r="D777" s="7"/>
+      <c r="C777" s="13"/>
+      <c r="D777" s="8"/>
     </row>
     <row r="778" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C778" s="12"/>
-      <c r="D778" s="7"/>
+      <c r="C778" s="13"/>
+      <c r="D778" s="8"/>
     </row>
     <row r="779" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C779" s="12"/>
-      <c r="D779" s="7"/>
+      <c r="C779" s="13"/>
+      <c r="D779" s="8"/>
     </row>
     <row r="780" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C780" s="12"/>
-      <c r="D780" s="7"/>
+      <c r="C780" s="13"/>
+      <c r="D780" s="8"/>
     </row>
     <row r="781" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C781" s="12"/>
-      <c r="D781" s="7"/>
+      <c r="C781" s="13"/>
+      <c r="D781" s="8"/>
     </row>
     <row r="782" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C782" s="12"/>
-      <c r="D782" s="7"/>
+      <c r="C782" s="13"/>
+      <c r="D782" s="8"/>
     </row>
     <row r="783" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C783" s="12"/>
-      <c r="D783" s="7"/>
+      <c r="C783" s="13"/>
+      <c r="D783" s="8"/>
     </row>
     <row r="784" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C784" s="12"/>
-      <c r="D784" s="7"/>
+      <c r="C784" s="13"/>
+      <c r="D784" s="8"/>
     </row>
     <row r="785" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C785" s="12"/>
-      <c r="D785" s="7"/>
+      <c r="C785" s="13"/>
+      <c r="D785" s="8"/>
     </row>
     <row r="786" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C786" s="12"/>
-      <c r="D786" s="7"/>
+      <c r="C786" s="13"/>
+      <c r="D786" s="8"/>
     </row>
     <row r="787" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C787" s="12"/>
-      <c r="D787" s="7"/>
+      <c r="C787" s="13"/>
+      <c r="D787" s="8"/>
     </row>
     <row r="788" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C788" s="12"/>
-      <c r="D788" s="7"/>
+      <c r="C788" s="13"/>
+      <c r="D788" s="8"/>
     </row>
     <row r="789" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C789" s="12"/>
-      <c r="D789" s="7"/>
+      <c r="C789" s="13"/>
+      <c r="D789" s="8"/>
     </row>
     <row r="790" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C790" s="12"/>
-      <c r="D790" s="7"/>
+      <c r="C790" s="13"/>
+      <c r="D790" s="8"/>
     </row>
     <row r="791" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C791" s="12"/>
-      <c r="D791" s="7"/>
+      <c r="C791" s="13"/>
+      <c r="D791" s="8"/>
     </row>
     <row r="792" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C792" s="12"/>
-      <c r="D792" s="7"/>
+      <c r="C792" s="13"/>
+      <c r="D792" s="8"/>
     </row>
     <row r="793" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C793" s="12"/>
-      <c r="D793" s="7"/>
+      <c r="C793" s="13"/>
+      <c r="D793" s="8"/>
     </row>
     <row r="794" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C794" s="12"/>
-      <c r="D794" s="7"/>
+      <c r="C794" s="13"/>
+      <c r="D794" s="8"/>
     </row>
     <row r="795" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C795" s="12"/>
-      <c r="D795" s="7"/>
+      <c r="C795" s="13"/>
+      <c r="D795" s="8"/>
     </row>
     <row r="796" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C796" s="12"/>
-      <c r="D796" s="7"/>
+      <c r="C796" s="13"/>
+      <c r="D796" s="8"/>
     </row>
     <row r="797" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C797" s="12"/>
-      <c r="D797" s="7"/>
+      <c r="C797" s="13"/>
+      <c r="D797" s="8"/>
     </row>
     <row r="798" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C798" s="12"/>
-      <c r="D798" s="7"/>
+      <c r="C798" s="13"/>
+      <c r="D798" s="8"/>
     </row>
     <row r="799" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C799" s="12"/>
-      <c r="D799" s="7"/>
+      <c r="C799" s="13"/>
+      <c r="D799" s="8"/>
     </row>
     <row r="800" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C800" s="12"/>
-      <c r="D800" s="7"/>
+      <c r="C800" s="13"/>
+      <c r="D800" s="8"/>
     </row>
     <row r="801" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C801" s="12"/>
-      <c r="D801" s="7"/>
+      <c r="C801" s="13"/>
+      <c r="D801" s="8"/>
     </row>
     <row r="802" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C802" s="12"/>
-      <c r="D802" s="7"/>
+      <c r="C802" s="13"/>
+      <c r="D802" s="8"/>
     </row>
     <row r="803" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C803" s="12"/>
-      <c r="D803" s="7"/>
+      <c r="C803" s="13"/>
+      <c r="D803" s="8"/>
     </row>
     <row r="804" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C804" s="12"/>
-      <c r="D804" s="7"/>
+      <c r="C804" s="13"/>
+      <c r="D804" s="8"/>
     </row>
     <row r="805" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C805" s="12"/>
-      <c r="D805" s="7"/>
+      <c r="C805" s="13"/>
+      <c r="D805" s="8"/>
     </row>
     <row r="806" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C806" s="12"/>
-      <c r="D806" s="7"/>
+      <c r="C806" s="13"/>
+      <c r="D806" s="8"/>
     </row>
     <row r="807" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C807" s="12"/>
-      <c r="D807" s="7"/>
+      <c r="C807" s="13"/>
+      <c r="D807" s="8"/>
     </row>
     <row r="808" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C808" s="12"/>
-      <c r="D808" s="7"/>
+      <c r="C808" s="13"/>
+      <c r="D808" s="8"/>
     </row>
     <row r="809" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C809" s="12"/>
-      <c r="D809" s="7"/>
+      <c r="C809" s="13"/>
+      <c r="D809" s="8"/>
     </row>
     <row r="810" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C810" s="12"/>
-      <c r="D810" s="7"/>
+      <c r="C810" s="13"/>
+      <c r="D810" s="8"/>
     </row>
     <row r="811" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C811" s="12"/>
-      <c r="D811" s="7"/>
+      <c r="C811" s="13"/>
+      <c r="D811" s="8"/>
     </row>
     <row r="812" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C812" s="12"/>
-      <c r="D812" s="7"/>
+      <c r="C812" s="13"/>
+      <c r="D812" s="8"/>
     </row>
     <row r="813" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C813" s="12"/>
-      <c r="D813" s="7"/>
+      <c r="C813" s="13"/>
+      <c r="D813" s="8"/>
     </row>
     <row r="814" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C814" s="12"/>
-      <c r="D814" s="7"/>
+      <c r="C814" s="13"/>
+      <c r="D814" s="8"/>
     </row>
     <row r="815" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C815" s="12"/>
-      <c r="D815" s="7"/>
+      <c r="C815" s="13"/>
+      <c r="D815" s="8"/>
     </row>
     <row r="816" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C816" s="12"/>
-      <c r="D816" s="7"/>
+      <c r="C816" s="13"/>
+      <c r="D816" s="8"/>
     </row>
     <row r="817" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C817" s="12"/>
-      <c r="D817" s="7"/>
+      <c r="C817" s="13"/>
+      <c r="D817" s="8"/>
     </row>
     <row r="818" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C818" s="12"/>
-      <c r="D818" s="7"/>
+      <c r="C818" s="13"/>
+      <c r="D818" s="8"/>
     </row>
     <row r="819" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C819" s="12"/>
-      <c r="D819" s="7"/>
+      <c r="C819" s="13"/>
+      <c r="D819" s="8"/>
     </row>
     <row r="820" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C820" s="12"/>
-      <c r="D820" s="7"/>
+      <c r="C820" s="13"/>
+      <c r="D820" s="8"/>
     </row>
     <row r="821" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C821" s="12"/>
-      <c r="D821" s="7"/>
+      <c r="C821" s="13"/>
+      <c r="D821" s="8"/>
     </row>
     <row r="822" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C822" s="12"/>
-      <c r="D822" s="7"/>
+      <c r="C822" s="13"/>
+      <c r="D822" s="8"/>
     </row>
     <row r="823" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C823" s="12"/>
-      <c r="D823" s="7"/>
+      <c r="C823" s="13"/>
+      <c r="D823" s="8"/>
     </row>
     <row r="824" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C824" s="12"/>
-      <c r="D824" s="7"/>
+      <c r="C824" s="13"/>
+      <c r="D824" s="8"/>
     </row>
     <row r="825" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C825" s="12"/>
-      <c r="D825" s="7"/>
+      <c r="C825" s="13"/>
+      <c r="D825" s="8"/>
     </row>
     <row r="826" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C826" s="12"/>
-      <c r="D826" s="7"/>
+      <c r="C826" s="13"/>
+      <c r="D826" s="8"/>
     </row>
     <row r="827" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C827" s="12"/>
-      <c r="D827" s="7"/>
+      <c r="C827" s="13"/>
+      <c r="D827" s="8"/>
     </row>
     <row r="828" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C828" s="12"/>
-      <c r="D828" s="7"/>
+      <c r="C828" s="13"/>
+      <c r="D828" s="8"/>
     </row>
     <row r="829" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C829" s="12"/>
-      <c r="D829" s="7"/>
+      <c r="C829" s="13"/>
+      <c r="D829" s="8"/>
     </row>
     <row r="830" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C830" s="12"/>
-      <c r="D830" s="7"/>
+      <c r="C830" s="13"/>
+      <c r="D830" s="8"/>
     </row>
     <row r="831" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C831" s="12"/>
-      <c r="D831" s="7"/>
+      <c r="C831" s="13"/>
+      <c r="D831" s="8"/>
     </row>
     <row r="832" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C832" s="12"/>
-      <c r="D832" s="7"/>
+      <c r="C832" s="13"/>
+      <c r="D832" s="8"/>
     </row>
     <row r="833" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C833" s="12"/>
-      <c r="D833" s="7"/>
+      <c r="C833" s="13"/>
+      <c r="D833" s="8"/>
     </row>
     <row r="834" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C834" s="12"/>
-      <c r="D834" s="7"/>
+      <c r="C834" s="13"/>
+      <c r="D834" s="8"/>
     </row>
     <row r="835" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C835" s="12"/>
-      <c r="D835" s="7"/>
+      <c r="C835" s="13"/>
+      <c r="D835" s="8"/>
     </row>
     <row r="836" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C836" s="12"/>
-      <c r="D836" s="7"/>
+      <c r="C836" s="13"/>
+      <c r="D836" s="8"/>
     </row>
     <row r="837" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C837" s="12"/>
-      <c r="D837" s="7"/>
+      <c r="C837" s="13"/>
+      <c r="D837" s="8"/>
     </row>
     <row r="838" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C838" s="12"/>
-      <c r="D838" s="7"/>
+      <c r="C838" s="13"/>
+      <c r="D838" s="8"/>
     </row>
     <row r="839" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C839" s="12"/>
-      <c r="D839" s="7"/>
+      <c r="C839" s="13"/>
+      <c r="D839" s="8"/>
     </row>
     <row r="840" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C840" s="12"/>
-      <c r="D840" s="7"/>
+      <c r="C840" s="13"/>
+      <c r="D840" s="8"/>
     </row>
     <row r="841" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C841" s="12"/>
-      <c r="D841" s="7"/>
+      <c r="C841" s="13"/>
+      <c r="D841" s="8"/>
     </row>
     <row r="842" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C842" s="12"/>
-      <c r="D842" s="7"/>
+      <c r="C842" s="13"/>
+      <c r="D842" s="8"/>
     </row>
     <row r="843" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C843" s="12"/>
-      <c r="D843" s="7"/>
+      <c r="C843" s="13"/>
+      <c r="D843" s="8"/>
     </row>
     <row r="844" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C844" s="12"/>
-      <c r="D844" s="7"/>
+      <c r="C844" s="13"/>
+      <c r="D844" s="8"/>
     </row>
     <row r="845" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C845" s="12"/>
-      <c r="D845" s="7"/>
+      <c r="C845" s="13"/>
+      <c r="D845" s="8"/>
     </row>
     <row r="846" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C846" s="12"/>
-      <c r="D846" s="7"/>
+      <c r="C846" s="13"/>
+      <c r="D846" s="8"/>
     </row>
     <row r="847" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C847" s="12"/>
-      <c r="D847" s="7"/>
+      <c r="C847" s="13"/>
+      <c r="D847" s="8"/>
     </row>
     <row r="848" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C848" s="12"/>
-      <c r="D848" s="7"/>
+      <c r="C848" s="13"/>
+      <c r="D848" s="8"/>
     </row>
     <row r="849" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C849" s="12"/>
-      <c r="D849" s="7"/>
+      <c r="C849" s="13"/>
+      <c r="D849" s="8"/>
     </row>
     <row r="850" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C850" s="12"/>
-      <c r="D850" s="7"/>
+      <c r="C850" s="13"/>
+      <c r="D850" s="8"/>
     </row>
     <row r="851" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C851" s="12"/>
-      <c r="D851" s="7"/>
+      <c r="C851" s="13"/>
+      <c r="D851" s="8"/>
     </row>
     <row r="852" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C852" s="12"/>
-      <c r="D852" s="7"/>
+      <c r="C852" s="13"/>
+      <c r="D852" s="8"/>
     </row>
     <row r="853" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C853" s="12"/>
-      <c r="D853" s="7"/>
+      <c r="C853" s="13"/>
+      <c r="D853" s="8"/>
     </row>
     <row r="854" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C854" s="12"/>
-      <c r="D854" s="7"/>
+      <c r="C854" s="13"/>
+      <c r="D854" s="8"/>
     </row>
     <row r="855" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C855" s="12"/>
-      <c r="D855" s="7"/>
+      <c r="C855" s="13"/>
+      <c r="D855" s="8"/>
     </row>
     <row r="856" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C856" s="12"/>
-      <c r="D856" s="7"/>
+      <c r="C856" s="13"/>
+      <c r="D856" s="8"/>
     </row>
     <row r="857" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C857" s="12"/>
-      <c r="D857" s="7"/>
+      <c r="C857" s="13"/>
+      <c r="D857" s="8"/>
     </row>
     <row r="858" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C858" s="12"/>
-      <c r="D858" s="7"/>
+      <c r="C858" s="13"/>
+      <c r="D858" s="8"/>
     </row>
     <row r="859" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C859" s="12"/>
-      <c r="D859" s="7"/>
+      <c r="C859" s="13"/>
+      <c r="D859" s="8"/>
     </row>
     <row r="860" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C860" s="12"/>
-      <c r="D860" s="7"/>
+      <c r="C860" s="13"/>
+      <c r="D860" s="8"/>
     </row>
     <row r="861" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C861" s="12"/>
-      <c r="D861" s="7"/>
+      <c r="C861" s="13"/>
+      <c r="D861" s="8"/>
     </row>
     <row r="862" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C862" s="12"/>
-      <c r="D862" s="7"/>
+      <c r="C862" s="13"/>
+      <c r="D862" s="8"/>
     </row>
     <row r="863" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C863" s="12"/>
-      <c r="D863" s="7"/>
+      <c r="C863" s="13"/>
+      <c r="D863" s="8"/>
     </row>
     <row r="864" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C864" s="12"/>
-      <c r="D864" s="7"/>
+      <c r="C864" s="13"/>
+      <c r="D864" s="8"/>
     </row>
     <row r="865" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C865" s="12"/>
-      <c r="D865" s="7"/>
+      <c r="C865" s="13"/>
+      <c r="D865" s="8"/>
     </row>
     <row r="866" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C866" s="12"/>
-      <c r="D866" s="7"/>
+      <c r="C866" s="13"/>
+      <c r="D866" s="8"/>
     </row>
     <row r="867" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C867" s="12"/>
-      <c r="D867" s="7"/>
+      <c r="C867" s="13"/>
+      <c r="D867" s="8"/>
     </row>
     <row r="868" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C868" s="12"/>
-      <c r="D868" s="7"/>
+      <c r="C868" s="13"/>
+      <c r="D868" s="8"/>
     </row>
     <row r="869" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C869" s="12"/>
-      <c r="D869" s="7"/>
+      <c r="C869" s="13"/>
+      <c r="D869" s="8"/>
     </row>
     <row r="870" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C870" s="12"/>
-      <c r="D870" s="7"/>
+      <c r="C870" s="13"/>
+      <c r="D870" s="8"/>
     </row>
     <row r="871" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C871" s="12"/>
-      <c r="D871" s="7"/>
+      <c r="C871" s="13"/>
+      <c r="D871" s="8"/>
     </row>
     <row r="872" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C872" s="12"/>
-      <c r="D872" s="7"/>
+      <c r="C872" s="13"/>
+      <c r="D872" s="8"/>
     </row>
     <row r="873" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C873" s="12"/>
-      <c r="D873" s="7"/>
+      <c r="C873" s="13"/>
+      <c r="D873" s="8"/>
     </row>
     <row r="874" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C874" s="12"/>
-      <c r="D874" s="7"/>
+      <c r="C874" s="13"/>
+      <c r="D874" s="8"/>
     </row>
     <row r="875" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C875" s="12"/>
-      <c r="D875" s="7"/>
+      <c r="C875" s="13"/>
+      <c r="D875" s="8"/>
     </row>
     <row r="876" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C876" s="12"/>
-      <c r="D876" s="7"/>
+      <c r="C876" s="13"/>
+      <c r="D876" s="8"/>
     </row>
     <row r="877" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C877" s="12"/>
-      <c r="D877" s="7"/>
+      <c r="C877" s="13"/>
+      <c r="D877" s="8"/>
     </row>
     <row r="878" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C878" s="12"/>
-      <c r="D878" s="7"/>
+      <c r="C878" s="13"/>
+      <c r="D878" s="8"/>
     </row>
     <row r="879" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C879" s="12"/>
-      <c r="D879" s="7"/>
+      <c r="C879" s="13"/>
+      <c r="D879" s="8"/>
     </row>
     <row r="880" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C880" s="12"/>
-      <c r="D880" s="7"/>
+      <c r="C880" s="13"/>
+      <c r="D880" s="8"/>
     </row>
     <row r="881" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C881" s="12"/>
-      <c r="D881" s="7"/>
+      <c r="C881" s="13"/>
+      <c r="D881" s="8"/>
     </row>
     <row r="882" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C882" s="12"/>
-      <c r="D882" s="7"/>
+      <c r="C882" s="13"/>
+      <c r="D882" s="8"/>
     </row>
     <row r="883" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C883" s="12"/>
-      <c r="D883" s="7"/>
+      <c r="C883" s="13"/>
+      <c r="D883" s="8"/>
     </row>
     <row r="884" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C884" s="12"/>
-      <c r="D884" s="7"/>
+      <c r="C884" s="13"/>
+      <c r="D884" s="8"/>
     </row>
     <row r="885" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C885" s="12"/>
-      <c r="D885" s="7"/>
+      <c r="C885" s="13"/>
+      <c r="D885" s="8"/>
     </row>
     <row r="886" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C886" s="12"/>
-      <c r="D886" s="7"/>
+      <c r="C886" s="13"/>
+      <c r="D886" s="8"/>
     </row>
     <row r="887" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C887" s="12"/>
-      <c r="D887" s="7"/>
+      <c r="C887" s="13"/>
+      <c r="D887" s="8"/>
     </row>
     <row r="888" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C888" s="12"/>
-      <c r="D888" s="7"/>
+      <c r="C888" s="13"/>
+      <c r="D888" s="8"/>
     </row>
     <row r="889" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C889" s="12"/>
-      <c r="D889" s="7"/>
+      <c r="C889" s="13"/>
+      <c r="D889" s="8"/>
     </row>
     <row r="890" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C890" s="12"/>
-      <c r="D890" s="7"/>
+      <c r="C890" s="13"/>
+      <c r="D890" s="8"/>
     </row>
     <row r="891" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C891" s="12"/>
-      <c r="D891" s="7"/>
+      <c r="C891" s="13"/>
+      <c r="D891" s="8"/>
     </row>
     <row r="892" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C892" s="12"/>
-      <c r="D892" s="7"/>
+      <c r="C892" s="13"/>
+      <c r="D892" s="8"/>
     </row>
     <row r="893" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C893" s="12"/>
-      <c r="D893" s="7"/>
+      <c r="C893" s="13"/>
+      <c r="D893" s="8"/>
     </row>
     <row r="894" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C894" s="12"/>
-      <c r="D894" s="7"/>
+      <c r="C894" s="13"/>
+      <c r="D894" s="8"/>
     </row>
     <row r="895" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C895" s="12"/>
-      <c r="D895" s="7"/>
+      <c r="C895" s="13"/>
+      <c r="D895" s="8"/>
     </row>
     <row r="896" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C896" s="12"/>
-      <c r="D896" s="7"/>
+      <c r="C896" s="13"/>
+      <c r="D896" s="8"/>
     </row>
     <row r="897" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C897" s="12"/>
-      <c r="D897" s="7"/>
+      <c r="C897" s="13"/>
+      <c r="D897" s="8"/>
     </row>
     <row r="898" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C898" s="12"/>
-      <c r="D898" s="7"/>
+      <c r="C898" s="13"/>
+      <c r="D898" s="8"/>
     </row>
     <row r="899" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C899" s="12"/>
-      <c r="D899" s="7"/>
+      <c r="C899" s="13"/>
+      <c r="D899" s="8"/>
     </row>
     <row r="900" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C900" s="12"/>
-      <c r="D900" s="7"/>
+      <c r="C900" s="13"/>
+      <c r="D900" s="8"/>
     </row>
     <row r="901" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C901" s="12"/>
-      <c r="D901" s="7"/>
+      <c r="C901" s="13"/>
+      <c r="D901" s="8"/>
     </row>
     <row r="902" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C902" s="12"/>
-      <c r="D902" s="7"/>
+      <c r="C902" s="13"/>
+      <c r="D902" s="8"/>
     </row>
     <row r="903" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C903" s="12"/>
-      <c r="D903" s="7"/>
+      <c r="C903" s="13"/>
+      <c r="D903" s="8"/>
     </row>
     <row r="904" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C904" s="12"/>
-      <c r="D904" s="7"/>
+      <c r="C904" s="13"/>
+      <c r="D904" s="8"/>
     </row>
     <row r="905" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C905" s="12"/>
-      <c r="D905" s="7"/>
+      <c r="C905" s="13"/>
+      <c r="D905" s="8"/>
     </row>
     <row r="906" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C906" s="12"/>
-      <c r="D906" s="7"/>
+      <c r="C906" s="13"/>
+      <c r="D906" s="8"/>
     </row>
     <row r="907" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C907" s="12"/>
-      <c r="D907" s="7"/>
+      <c r="C907" s="13"/>
+      <c r="D907" s="8"/>
     </row>
     <row r="908" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C908" s="12"/>
-      <c r="D908" s="7"/>
+      <c r="C908" s="13"/>
+      <c r="D908" s="8"/>
     </row>
     <row r="909" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C909" s="12"/>
-      <c r="D909" s="7"/>
+      <c r="C909" s="13"/>
+      <c r="D909" s="8"/>
     </row>
     <row r="910" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C910" s="12"/>
-      <c r="D910" s="7"/>
+      <c r="C910" s="13"/>
+      <c r="D910" s="8"/>
     </row>
     <row r="911" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C911" s="12"/>
-      <c r="D911" s="7"/>
+      <c r="C911" s="13"/>
+      <c r="D911" s="8"/>
     </row>
     <row r="912" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C912" s="12"/>
-      <c r="D912" s="7"/>
+      <c r="C912" s="13"/>
+      <c r="D912" s="8"/>
     </row>
     <row r="913" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C913" s="12"/>
-      <c r="D913" s="7"/>
+      <c r="C913" s="13"/>
+      <c r="D913" s="8"/>
     </row>
     <row r="914" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C914" s="12"/>
-      <c r="D914" s="7"/>
+      <c r="C914" s="13"/>
+      <c r="D914" s="8"/>
     </row>
     <row r="915" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C915" s="12"/>
-      <c r="D915" s="7"/>
+      <c r="C915" s="13"/>
+      <c r="D915" s="8"/>
     </row>
     <row r="916" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C916" s="12"/>
-      <c r="D916" s="7"/>
+      <c r="C916" s="13"/>
+      <c r="D916" s="8"/>
     </row>
     <row r="917" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C917" s="12"/>
-      <c r="D917" s="7"/>
+      <c r="C917" s="13"/>
+      <c r="D917" s="8"/>
     </row>
     <row r="918" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C918" s="12"/>
-      <c r="D918" s="7"/>
+      <c r="C918" s="13"/>
+      <c r="D918" s="8"/>
     </row>
     <row r="919" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C919" s="12"/>
-      <c r="D919" s="7"/>
+      <c r="C919" s="13"/>
+      <c r="D919" s="8"/>
     </row>
     <row r="920" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C920" s="12"/>
-      <c r="D920" s="7"/>
+      <c r="C920" s="13"/>
+      <c r="D920" s="8"/>
     </row>
     <row r="921" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C921" s="12"/>
-      <c r="D921" s="7"/>
+      <c r="C921" s="13"/>
+      <c r="D921" s="8"/>
     </row>
     <row r="922" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C922" s="12"/>
-      <c r="D922" s="7"/>
+      <c r="C922" s="13"/>
+      <c r="D922" s="8"/>
     </row>
     <row r="923" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C923" s="12"/>
-      <c r="D923" s="7"/>
+      <c r="C923" s="13"/>
+      <c r="D923" s="8"/>
     </row>
     <row r="924" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C924" s="12"/>
-      <c r="D924" s="7"/>
+      <c r="C924" s="13"/>
+      <c r="D924" s="8"/>
     </row>
     <row r="925" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C925" s="12"/>
-      <c r="D925" s="7"/>
+      <c r="C925" s="13"/>
+      <c r="D925" s="8"/>
     </row>
     <row r="926" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C926" s="12"/>
-      <c r="D926" s="7"/>
+      <c r="C926" s="13"/>
+      <c r="D926" s="8"/>
     </row>
     <row r="927" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C927" s="12"/>
-      <c r="D927" s="7"/>
+      <c r="C927" s="13"/>
+      <c r="D927" s="8"/>
     </row>
     <row r="928" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C928" s="12"/>
-      <c r="D928" s="7"/>
+      <c r="C928" s="13"/>
+      <c r="D928" s="8"/>
     </row>
     <row r="929" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C929" s="12"/>
-      <c r="D929" s="7"/>
+      <c r="C929" s="13"/>
+      <c r="D929" s="8"/>
     </row>
     <row r="930" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C930" s="12"/>
-      <c r="D930" s="7"/>
+      <c r="C930" s="13"/>
+      <c r="D930" s="8"/>
     </row>
     <row r="931" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C931" s="12"/>
-      <c r="D931" s="7"/>
+      <c r="C931" s="13"/>
+      <c r="D931" s="8"/>
     </row>
     <row r="932" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C932" s="12"/>
-      <c r="D932" s="7"/>
+      <c r="C932" s="13"/>
+      <c r="D932" s="8"/>
     </row>
     <row r="933" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C933" s="12"/>
-      <c r="D933" s="7"/>
+      <c r="C933" s="13"/>
+      <c r="D933" s="8"/>
     </row>
     <row r="934" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C934" s="12"/>
-      <c r="D934" s="7"/>
+      <c r="C934" s="13"/>
+      <c r="D934" s="8"/>
     </row>
     <row r="935" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C935" s="12"/>
-      <c r="D935" s="7"/>
+      <c r="C935" s="13"/>
+      <c r="D935" s="8"/>
     </row>
     <row r="936" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C936" s="12"/>
-      <c r="D936" s="7"/>
+      <c r="C936" s="13"/>
+      <c r="D936" s="8"/>
     </row>
     <row r="937" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C937" s="12"/>
-      <c r="D937" s="7"/>
+      <c r="C937" s="13"/>
+      <c r="D937" s="8"/>
     </row>
     <row r="938" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C938" s="12"/>
-      <c r="D938" s="7"/>
+      <c r="C938" s="13"/>
+      <c r="D938" s="8"/>
     </row>
     <row r="939" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C939" s="12"/>
-      <c r="D939" s="7"/>
+      <c r="C939" s="13"/>
+      <c r="D939" s="8"/>
     </row>
     <row r="940" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C940" s="12"/>
-      <c r="D940" s="7"/>
+      <c r="C940" s="13"/>
+      <c r="D940" s="8"/>
     </row>
     <row r="941" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C941" s="12"/>
-      <c r="D941" s="7"/>
+      <c r="C941" s="13"/>
+      <c r="D941" s="8"/>
     </row>
     <row r="942" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C942" s="12"/>
-      <c r="D942" s="7"/>
+      <c r="C942" s="13"/>
+      <c r="D942" s="8"/>
     </row>
     <row r="943" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C943" s="12"/>
-      <c r="D943" s="7"/>
+      <c r="C943" s="13"/>
+      <c r="D943" s="8"/>
     </row>
     <row r="944" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C944" s="12"/>
-      <c r="D944" s="7"/>
+      <c r="C944" s="13"/>
+      <c r="D944" s="8"/>
     </row>
     <row r="945" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C945" s="12"/>
-      <c r="D945" s="7"/>
+      <c r="C945" s="13"/>
+      <c r="D945" s="8"/>
     </row>
     <row r="946" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C946" s="12"/>
-      <c r="D946" s="7"/>
+      <c r="C946" s="13"/>
+      <c r="D946" s="8"/>
     </row>
     <row r="947" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C947" s="12"/>
-      <c r="D947" s="7"/>
+      <c r="C947" s="13"/>
+      <c r="D947" s="8"/>
     </row>
     <row r="948" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C948" s="12"/>
-      <c r="D948" s="7"/>
+      <c r="C948" s="13"/>
+      <c r="D948" s="8"/>
     </row>
     <row r="949" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C949" s="12"/>
-      <c r="D949" s="7"/>
+      <c r="C949" s="13"/>
+      <c r="D949" s="8"/>
     </row>
     <row r="950" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C950" s="12"/>
-      <c r="D950" s="7"/>
+      <c r="C950" s="13"/>
+      <c r="D950" s="8"/>
     </row>
     <row r="951" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C951" s="12"/>
-      <c r="D951" s="7"/>
+      <c r="C951" s="13"/>
+      <c r="D951" s="8"/>
     </row>
     <row r="952" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C952" s="12"/>
-      <c r="D952" s="7"/>
+      <c r="C952" s="13"/>
+      <c r="D952" s="8"/>
     </row>
     <row r="953" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C953" s="12"/>
-      <c r="D953" s="7"/>
+      <c r="C953" s="13"/>
+      <c r="D953" s="8"/>
     </row>
     <row r="954" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C954" s="12"/>
-      <c r="D954" s="7"/>
+      <c r="C954" s="13"/>
+      <c r="D954" s="8"/>
     </row>
     <row r="955" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C955" s="12"/>
-      <c r="D955" s="7"/>
+      <c r="C955" s="13"/>
+      <c r="D955" s="8"/>
     </row>
     <row r="956" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C956" s="12"/>
-      <c r="D956" s="7"/>
+      <c r="C956" s="13"/>
+      <c r="D956" s="8"/>
     </row>
     <row r="957" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C957" s="12"/>
-      <c r="D957" s="7"/>
+      <c r="C957" s="13"/>
+      <c r="D957" s="8"/>
     </row>
     <row r="958" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C958" s="12"/>
-      <c r="D958" s="7"/>
+      <c r="C958" s="13"/>
+      <c r="D958" s="8"/>
     </row>
     <row r="959" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C959" s="12"/>
-      <c r="D959" s="7"/>
+      <c r="C959" s="13"/>
+      <c r="D959" s="8"/>
     </row>
     <row r="960" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C960" s="12"/>
-      <c r="D960" s="7"/>
+      <c r="C960" s="13"/>
+      <c r="D960" s="8"/>
     </row>
     <row r="961" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C961" s="12"/>
-      <c r="D961" s="7"/>
+      <c r="C961" s="13"/>
+      <c r="D961" s="8"/>
     </row>
     <row r="962" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C962" s="12"/>
-      <c r="D962" s="7"/>
+      <c r="C962" s="13"/>
+      <c r="D962" s="8"/>
     </row>
     <row r="963" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C963" s="12"/>
-      <c r="D963" s="7"/>
+      <c r="C963" s="13"/>
+      <c r="D963" s="8"/>
     </row>
     <row r="964" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C964" s="12"/>
-      <c r="D964" s="7"/>
+      <c r="C964" s="13"/>
+      <c r="D964" s="8"/>
     </row>
     <row r="965" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C965" s="12"/>
-      <c r="D965" s="7"/>
+      <c r="C965" s="13"/>
+      <c r="D965" s="8"/>
     </row>
     <row r="966" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C966" s="12"/>
-      <c r="D966" s="7"/>
+      <c r="C966" s="13"/>
+      <c r="D966" s="8"/>
     </row>
     <row r="967" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C967" s="12"/>
-      <c r="D967" s="7"/>
+      <c r="C967" s="13"/>
+      <c r="D967" s="8"/>
     </row>
     <row r="968" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C968" s="12"/>
-      <c r="D968" s="7"/>
+      <c r="C968" s="13"/>
+      <c r="D968" s="8"/>
     </row>
     <row r="969" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C969" s="12"/>
-      <c r="D969" s="7"/>
+      <c r="C969" s="13"/>
+      <c r="D969" s="8"/>
     </row>
     <row r="970" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C970" s="12"/>
-      <c r="D970" s="7"/>
+      <c r="C970" s="13"/>
+      <c r="D970" s="8"/>
     </row>
     <row r="971" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C971" s="12"/>
-      <c r="D971" s="7"/>
+      <c r="C971" s="13"/>
+      <c r="D971" s="8"/>
     </row>
     <row r="972" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C972" s="12"/>
-      <c r="D972" s="7"/>
+      <c r="C972" s="13"/>
+      <c r="D972" s="8"/>
     </row>
     <row r="973" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C973" s="12"/>
-      <c r="D973" s="7"/>
+      <c r="C973" s="13"/>
+      <c r="D973" s="8"/>
     </row>
     <row r="974" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C974" s="12"/>
-      <c r="D974" s="7"/>
+      <c r="C974" s="13"/>
+      <c r="D974" s="8"/>
     </row>
     <row r="975" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C975" s="12"/>
-      <c r="D975" s="7"/>
+      <c r="C975" s="13"/>
+      <c r="D975" s="8"/>
     </row>
     <row r="976" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C976" s="12"/>
-      <c r="D976" s="7"/>
+      <c r="C976" s="13"/>
+      <c r="D976" s="8"/>
     </row>
     <row r="977" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C977" s="12"/>
-      <c r="D977" s="7"/>
+      <c r="C977" s="13"/>
+      <c r="D977" s="8"/>
     </row>
     <row r="978" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C978" s="12"/>
-      <c r="D978" s="7"/>
+      <c r="C978" s="13"/>
+      <c r="D978" s="8"/>
     </row>
     <row r="979" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C979" s="12"/>
-      <c r="D979" s="7"/>
+      <c r="C979" s="13"/>
+      <c r="D979" s="8"/>
     </row>
     <row r="980" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C980" s="12"/>
-      <c r="D980" s="7"/>
+      <c r="C980" s="13"/>
+      <c r="D980" s="8"/>
     </row>
     <row r="981" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C981" s="12"/>
-      <c r="D981" s="7"/>
+      <c r="C981" s="13"/>
+      <c r="D981" s="8"/>
     </row>
     <row r="982" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C982" s="12"/>
-      <c r="D982" s="7"/>
+      <c r="C982" s="13"/>
+      <c r="D982" s="8"/>
     </row>
     <row r="983" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C983" s="12"/>
-      <c r="D983" s="7"/>
+      <c r="C983" s="13"/>
+      <c r="D983" s="8"/>
     </row>
     <row r="984" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C984" s="12"/>
-      <c r="D984" s="7"/>
+      <c r="C984" s="13"/>
+      <c r="D984" s="8"/>
     </row>
     <row r="985" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C985" s="12"/>
-      <c r="D985" s="7"/>
+      <c r="C985" s="13"/>
+      <c r="D985" s="8"/>
     </row>
     <row r="986" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C986" s="12"/>
-      <c r="D986" s="7"/>
+      <c r="C986" s="13"/>
+      <c r="D986" s="8"/>
     </row>
     <row r="987" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C987" s="12"/>
-      <c r="D987" s="7"/>
+      <c r="C987" s="13"/>
+      <c r="D987" s="8"/>
     </row>
     <row r="988" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C988" s="12"/>
-      <c r="D988" s="7"/>
+      <c r="C988" s="13"/>
+      <c r="D988" s="8"/>
     </row>
     <row r="989" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C989" s="12"/>
-      <c r="D989" s="7"/>
+      <c r="C989" s="13"/>
+      <c r="D989" s="8"/>
     </row>
     <row r="990" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C990" s="12"/>
-      <c r="D990" s="7"/>
+      <c r="C990" s="13"/>
+      <c r="D990" s="8"/>
     </row>
     <row r="991" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C991" s="12"/>
-      <c r="D991" s="7"/>
+      <c r="C991" s="13"/>
+      <c r="D991" s="8"/>
     </row>
     <row r="992" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C992" s="12"/>
-      <c r="D992" s="7"/>
+      <c r="C992" s="13"/>
+      <c r="D992" s="8"/>
     </row>
     <row r="993" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C993" s="12"/>
-      <c r="D993" s="7"/>
+      <c r="C993" s="13"/>
+      <c r="D993" s="8"/>
     </row>
     <row r="994" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C994" s="12"/>
-      <c r="D994" s="7"/>
+      <c r="C994" s="13"/>
+      <c r="D994" s="8"/>
     </row>
     <row r="995" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C995" s="12"/>
-      <c r="D995" s="7"/>
+      <c r="C995" s="13"/>
+      <c r="D995" s="8"/>
     </row>
     <row r="996" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C996" s="12"/>
-      <c r="D996" s="7"/>
+      <c r="C996" s="13"/>
+      <c r="D996" s="8"/>
     </row>
     <row r="997" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C997" s="12"/>
-      <c r="D997" s="7"/>
+      <c r="C997" s="13"/>
+      <c r="D997" s="8"/>
     </row>
     <row r="998" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C998" s="12"/>
-      <c r="D998" s="7"/>
+      <c r="C998" s="13"/>
+      <c r="D998" s="8"/>
     </row>
     <row r="999" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C999" s="12"/>
-      <c r="D999" s="7"/>
+      <c r="C999" s="13"/>
+      <c r="D999" s="8"/>
     </row>
     <row r="1000" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1000" s="12"/>
-      <c r="D1000" s="7"/>
+      <c r="C1000" s="13"/>
+      <c r="D1000" s="8"/>
     </row>
     <row r="1001" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1001" s="12"/>
-      <c r="D1001" s="7"/>
+      <c r="C1001" s="13"/>
+      <c r="D1001" s="8"/>
     </row>
     <row r="1002" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1002" s="12"/>
-      <c r="D1002" s="7"/>
+      <c r="C1002" s="13"/>
+      <c r="D1002" s="8"/>
     </row>
     <row r="1003" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1003" s="12"/>
-      <c r="D1003" s="7"/>
+      <c r="C1003" s="13"/>
+      <c r="D1003" s="8"/>
     </row>
     <row r="1004" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1004" s="12"/>
-      <c r="D1004" s="7"/>
+      <c r="C1004" s="13"/>
+      <c r="D1004" s="8"/>
     </row>
     <row r="1005" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1005" s="12"/>
-      <c r="D1005" s="7"/>
+      <c r="C1005" s="13"/>
+      <c r="D1005" s="8"/>
     </row>
     <row r="1006" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1006" s="12"/>
-      <c r="D1006" s="7"/>
+      <c r="C1006" s="13"/>
+      <c r="D1006" s="8"/>
     </row>
     <row r="1007" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1007" s="12"/>
-      <c r="D1007" s="7"/>
+      <c r="C1007" s="13"/>
+      <c r="D1007" s="8"/>
     </row>
     <row r="1008" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1008" s="12"/>
-      <c r="D1008" s="7"/>
+      <c r="C1008" s="13"/>
+      <c r="D1008" s="8"/>
     </row>
     <row r="1009" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1009" s="12"/>
-      <c r="D1009" s="7"/>
+      <c r="C1009" s="13"/>
+      <c r="D1009" s="8"/>
     </row>
     <row r="1010" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1010" s="12"/>
-      <c r="D1010" s="7"/>
+      <c r="C1010" s="13"/>
+      <c r="D1010" s="8"/>
     </row>
     <row r="1011" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1011" s="12"/>
-      <c r="D1011" s="7"/>
+      <c r="C1011" s="13"/>
+      <c r="D1011" s="8"/>
     </row>
     <row r="1012" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1012" s="12"/>
-      <c r="D1012" s="7"/>
+      <c r="C1012" s="13"/>
+      <c r="D1012" s="8"/>
     </row>
     <row r="1013" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1013" s="12"/>
-      <c r="D1013" s="7"/>
+      <c r="C1013" s="13"/>
+      <c r="D1013" s="8"/>
     </row>
     <row r="1014" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1014" s="12"/>
-      <c r="D1014" s="7"/>
+      <c r="C1014" s="13"/>
+      <c r="D1014" s="8"/>
     </row>
     <row r="1015" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1015" s="12"/>
-      <c r="D1015" s="7"/>
+      <c r="C1015" s="13"/>
+      <c r="D1015" s="8"/>
     </row>
     <row r="1016" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1016" s="12"/>
-      <c r="D1016" s="7"/>
+      <c r="C1016" s="13"/>
+      <c r="D1016" s="8"/>
     </row>
     <row r="1017" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1017" s="12"/>
-      <c r="D1017" s="7"/>
+      <c r="C1017" s="13"/>
+      <c r="D1017" s="8"/>
     </row>
     <row r="1018" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1018" s="12"/>
-      <c r="D1018" s="7"/>
+      <c r="C1018" s="13"/>
+      <c r="D1018" s="8"/>
     </row>
     <row r="1019" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1019" s="12"/>
-      <c r="D1019" s="7"/>
+      <c r="C1019" s="13"/>
+      <c r="D1019" s="8"/>
     </row>
     <row r="1020" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1020" s="12"/>
-      <c r="D1020" s="7"/>
+      <c r="C1020" s="13"/>
+      <c r="D1020" s="8"/>
     </row>
     <row r="1021" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1021" s="12"/>
-      <c r="D1021" s="7"/>
+      <c r="C1021" s="13"/>
+      <c r="D1021" s="8"/>
     </row>
     <row r="1022" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1022" s="12"/>
-      <c r="D1022" s="7"/>
+      <c r="C1022" s="13"/>
+      <c r="D1022" s="8"/>
     </row>
     <row r="1023" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1023" s="12"/>
-      <c r="D1023" s="7"/>
+      <c r="C1023" s="13"/>
+      <c r="D1023" s="8"/>
     </row>
     <row r="1024" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1024" s="12"/>
-      <c r="D1024" s="7"/>
+      <c r="C1024" s="13"/>
+      <c r="D1024" s="8"/>
     </row>
     <row r="1025" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1025" s="12"/>
-      <c r="D1025" s="7"/>
+      <c r="C1025" s="13"/>
+      <c r="D1025" s="8"/>
     </row>
     <row r="1026" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1026" s="12"/>
-      <c r="D1026" s="7"/>
+      <c r="C1026" s="13"/>
+      <c r="D1026" s="8"/>
     </row>
     <row r="1027" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1027" s="12"/>
-      <c r="D1027" s="7"/>
+      <c r="C1027" s="13"/>
+      <c r="D1027" s="8"/>
     </row>
     <row r="1028" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1028" s="12"/>
-      <c r="D1028" s="7"/>
+      <c r="C1028" s="13"/>
+      <c r="D1028" s="8"/>
     </row>
     <row r="1029" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1029" s="12"/>
-      <c r="D1029" s="7"/>
+      <c r="C1029" s="13"/>
+      <c r="D1029" s="8"/>
     </row>
     <row r="1030" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1030" s="12"/>
-      <c r="D1030" s="7"/>
+      <c r="C1030" s="13"/>
+      <c r="D1030" s="8"/>
     </row>
     <row r="1031" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1031" s="12"/>
-      <c r="D1031" s="7"/>
+      <c r="C1031" s="13"/>
+      <c r="D1031" s="8"/>
     </row>
     <row r="1032" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1032" s="12"/>
-      <c r="D1032" s="7"/>
+      <c r="C1032" s="13"/>
+      <c r="D1032" s="8"/>
     </row>
     <row r="1033" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1033" s="12"/>
-      <c r="D1033" s="7"/>
+      <c r="C1033" s="13"/>
+      <c r="D1033" s="8"/>
     </row>
     <row r="1034" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1034" s="12"/>
-      <c r="D1034" s="7"/>
+      <c r="C1034" s="13"/>
+      <c r="D1034" s="8"/>
     </row>
     <row r="1035" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1035" s="12"/>
-      <c r="D1035" s="7"/>
+      <c r="C1035" s="13"/>
+      <c r="D1035" s="8"/>
     </row>
     <row r="1036" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1036" s="12"/>
-      <c r="D1036" s="7"/>
+      <c r="C1036" s="13"/>
+      <c r="D1036" s="8"/>
     </row>
     <row r="1037" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1037" s="12"/>
-      <c r="D1037" s="7"/>
+      <c r="C1037" s="13"/>
+      <c r="D1037" s="8"/>
     </row>
     <row r="1038" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1038" s="12"/>
-      <c r="D1038" s="7"/>
+      <c r="C1038" s="13"/>
+      <c r="D1038" s="8"/>
     </row>
     <row r="1039" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1039" s="12"/>
-      <c r="D1039" s="7"/>
+      <c r="C1039" s="13"/>
+      <c r="D1039" s="8"/>
     </row>
     <row r="1040" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1040" s="12"/>
-      <c r="D1040" s="7"/>
+      <c r="C1040" s="13"/>
+      <c r="D1040" s="8"/>
     </row>
     <row r="1041" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1041" s="12"/>
-      <c r="D1041" s="7"/>
+      <c r="C1041" s="13"/>
+      <c r="D1041" s="8"/>
     </row>
     <row r="1042" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1042" s="12"/>
-      <c r="D1042" s="7"/>
+      <c r="C1042" s="13"/>
+      <c r="D1042" s="8"/>
     </row>
     <row r="1043" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1043" s="12"/>
-      <c r="D1043" s="7"/>
+      <c r="C1043" s="13"/>
+      <c r="D1043" s="8"/>
     </row>
     <row r="1044" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1044" s="12"/>
-      <c r="D1044" s="7"/>
+      <c r="C1044" s="13"/>
+      <c r="D1044" s="8"/>
     </row>
     <row r="1045" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1045" s="12"/>
-      <c r="D1045" s="7"/>
+      <c r="C1045" s="13"/>
+      <c r="D1045" s="8"/>
     </row>
     <row r="1046" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1046" s="12"/>
-      <c r="D1046" s="7"/>
+      <c r="C1046" s="13"/>
+      <c r="D1046" s="8"/>
     </row>
     <row r="1047" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1047" s="12"/>
-      <c r="D1047" s="7"/>
+      <c r="C1047" s="13"/>
+      <c r="D1047" s="8"/>
     </row>
     <row r="1048" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1048" s="12"/>
-      <c r="D1048" s="7"/>
+      <c r="C1048" s="13"/>
+      <c r="D1048" s="8"/>
     </row>
     <row r="1049" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1049" s="12"/>
-      <c r="D1049" s="7"/>
+      <c r="C1049" s="13"/>
+      <c r="D1049" s="8"/>
     </row>
     <row r="1050" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1050" s="12"/>
-      <c r="D1050" s="7"/>
+      <c r="C1050" s="13"/>
+      <c r="D1050" s="8"/>
     </row>
     <row r="1051" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1051" s="12"/>
-      <c r="D1051" s="7"/>
+      <c r="C1051" s="13"/>
+      <c r="D1051" s="8"/>
     </row>
     <row r="1052" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1052" s="12"/>
-      <c r="D1052" s="7"/>
+      <c r="C1052" s="13"/>
+      <c r="D1052" s="8"/>
     </row>
     <row r="1053" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1053" s="12"/>
-      <c r="D1053" s="7"/>
+      <c r="C1053" s="13"/>
+      <c r="D1053" s="8"/>
     </row>
     <row r="1054" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1054" s="12"/>
-      <c r="D1054" s="7"/>
+      <c r="C1054" s="13"/>
+      <c r="D1054" s="8"/>
     </row>
     <row r="1055" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1055" s="12"/>
-      <c r="D1055" s="7"/>
+      <c r="C1055" s="13"/>
+      <c r="D1055" s="8"/>
     </row>
     <row r="1056" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1056" s="12"/>
-      <c r="D1056" s="7"/>
+      <c r="C1056" s="13"/>
+      <c r="D1056" s="8"/>
     </row>
     <row r="1057" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1057" s="12"/>
-      <c r="D1057" s="7"/>
+      <c r="C1057" s="13"/>
+      <c r="D1057" s="8"/>
     </row>
     <row r="1058" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1058" s="12"/>
-      <c r="D1058" s="7"/>
+      <c r="C1058" s="13"/>
+      <c r="D1058" s="8"/>
     </row>
     <row r="1059" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1059" s="12"/>
-      <c r="D1059" s="7"/>
+      <c r="C1059" s="13"/>
+      <c r="D1059" s="8"/>
     </row>
     <row r="1060" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1060" s="12"/>
-      <c r="D1060" s="7"/>
+      <c r="C1060" s="13"/>
+      <c r="D1060" s="8"/>
     </row>
     <row r="1061" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1061" s="12"/>
-      <c r="D1061" s="7"/>
+      <c r="C1061" s="13"/>
+      <c r="D1061" s="8"/>
     </row>
     <row r="1062" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1062" s="12"/>
-      <c r="D1062" s="7"/>
+      <c r="C1062" s="13"/>
+      <c r="D1062" s="8"/>
     </row>
     <row r="1063" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1063" s="12"/>
-      <c r="D1063" s="7"/>
+      <c r="C1063" s="13"/>
+      <c r="D1063" s="8"/>
     </row>
     <row r="1064" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1064" s="12"/>
-      <c r="D1064" s="7"/>
+      <c r="C1064" s="13"/>
+      <c r="D1064" s="8"/>
     </row>
     <row r="1065" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1065" s="12"/>
-      <c r="D1065" s="7"/>
+      <c r="C1065" s="13"/>
+      <c r="D1065" s="8"/>
     </row>
     <row r="1066" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1066" s="12"/>
-      <c r="D1066" s="7"/>
+      <c r="C1066" s="13"/>
+      <c r="D1066" s="8"/>
     </row>
     <row r="1067" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1067" s="12"/>
-      <c r="D1067" s="7"/>
+      <c r="C1067" s="13"/>
+      <c r="D1067" s="8"/>
     </row>
     <row r="1068" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1068" s="12"/>
-      <c r="D1068" s="7"/>
+      <c r="C1068" s="13"/>
+      <c r="D1068" s="8"/>
     </row>
     <row r="1069" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1069" s="12"/>
-      <c r="D1069" s="7"/>
+      <c r="C1069" s="13"/>
+      <c r="D1069" s="8"/>
     </row>
     <row r="1070" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1070" s="12"/>
-      <c r="D1070" s="7"/>
+      <c r="C1070" s="13"/>
+      <c r="D1070" s="8"/>
     </row>
     <row r="1071" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1071" s="12"/>
-      <c r="D1071" s="7"/>
+      <c r="C1071" s="13"/>
+      <c r="D1071" s="8"/>
     </row>
     <row r="1072" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1072" s="12"/>
-      <c r="D1072" s="7"/>
+      <c r="C1072" s="13"/>
+      <c r="D1072" s="8"/>
     </row>
     <row r="1073" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1073" s="12"/>
-      <c r="D1073" s="7"/>
+      <c r="C1073" s="13"/>
+      <c r="D1073" s="8"/>
     </row>
     <row r="1074" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1074" s="12"/>
-      <c r="D1074" s="7"/>
+      <c r="C1074" s="13"/>
+      <c r="D1074" s="8"/>
     </row>
     <row r="1075" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1075" s="12"/>
-      <c r="D1075" s="7"/>
+      <c r="C1075" s="13"/>
+      <c r="D1075" s="8"/>
     </row>
     <row r="1076" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1076" s="12"/>
-      <c r="D1076" s="7"/>
+      <c r="C1076" s="13"/>
+      <c r="D1076" s="8"/>
     </row>
     <row r="1077" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1077" s="12"/>
-      <c r="D1077" s="7"/>
+      <c r="C1077" s="13"/>
+      <c r="D1077" s="8"/>
     </row>
     <row r="1078" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1078" s="12"/>
-      <c r="D1078" s="7"/>
+      <c r="C1078" s="13"/>
+      <c r="D1078" s="8"/>
     </row>
     <row r="1079" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1079" s="12"/>
-      <c r="D1079" s="7"/>
+      <c r="C1079" s="13"/>
+      <c r="D1079" s="8"/>
     </row>
     <row r="1080" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1080" s="12"/>
-      <c r="D1080" s="7"/>
+      <c r="C1080" s="13"/>
+      <c r="D1080" s="8"/>
     </row>
     <row r="1081" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1081" s="12"/>
-      <c r="D1081" s="7"/>
+      <c r="C1081" s="13"/>
+      <c r="D1081" s="8"/>
     </row>
     <row r="1082" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1082" s="12"/>
-      <c r="D1082" s="7"/>
+      <c r="C1082" s="13"/>
+      <c r="D1082" s="8"/>
     </row>
     <row r="1083" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1083" s="12"/>
-      <c r="D1083" s="7"/>
+      <c r="C1083" s="13"/>
+      <c r="D1083" s="8"/>
     </row>
     <row r="1084" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1084" s="12"/>
-      <c r="D1084" s="7"/>
+      <c r="C1084" s="13"/>
+      <c r="D1084" s="8"/>
     </row>
     <row r="1085" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1085" s="12"/>
-      <c r="D1085" s="7"/>
+      <c r="C1085" s="13"/>
+      <c r="D1085" s="8"/>
     </row>
     <row r="1086" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1086" s="12"/>
-      <c r="D1086" s="7"/>
+      <c r="C1086" s="13"/>
+      <c r="D1086" s="8"/>
     </row>
     <row r="1087" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1087" s="12"/>
-      <c r="D1087" s="7"/>
+      <c r="C1087" s="13"/>
+      <c r="D1087" s="8"/>
     </row>
     <row r="1088" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1088" s="12"/>
-      <c r="D1088" s="7"/>
+      <c r="C1088" s="13"/>
+      <c r="D1088" s="8"/>
     </row>
     <row r="1089" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1089" s="12"/>
-      <c r="D1089" s="7"/>
+      <c r="C1089" s="13"/>
+      <c r="D1089" s="8"/>
     </row>
     <row r="1090" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1090" s="12"/>
-      <c r="D1090" s="7"/>
+      <c r="C1090" s="13"/>
+      <c r="D1090" s="8"/>
     </row>
     <row r="1091" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1091" s="12"/>
-      <c r="D1091" s="7"/>
+      <c r="C1091" s="13"/>
+      <c r="D1091" s="8"/>
     </row>
     <row r="1092" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1092" s="12"/>
-      <c r="D1092" s="7"/>
+      <c r="C1092" s="13"/>
+      <c r="D1092" s="8"/>
     </row>
     <row r="1093" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1093" s="12"/>
-      <c r="D1093" s="7"/>
+      <c r="C1093" s="13"/>
+      <c r="D1093" s="8"/>
     </row>
     <row r="1094" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1094" s="12"/>
-      <c r="D1094" s="7"/>
+      <c r="C1094" s="13"/>
+      <c r="D1094" s="8"/>
     </row>
     <row r="1095" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1095" s="12"/>
-      <c r="D1095" s="7"/>
+      <c r="C1095" s="13"/>
+      <c r="D1095" s="8"/>
     </row>
     <row r="1096" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1096" s="12"/>
-      <c r="D1096" s="7"/>
+      <c r="C1096" s="13"/>
+      <c r="D1096" s="8"/>
     </row>
     <row r="1097" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1097" s="12"/>
-      <c r="D1097" s="7"/>
+      <c r="C1097" s="13"/>
+      <c r="D1097" s="8"/>
     </row>
     <row r="1098" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1098" s="12"/>
-      <c r="D1098" s="7"/>
+      <c r="C1098" s="13"/>
+      <c r="D1098" s="8"/>
     </row>
     <row r="1099" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1099" s="12"/>
-      <c r="D1099" s="7"/>
+      <c r="C1099" s="13"/>
+      <c r="D1099" s="8"/>
     </row>
     <row r="1100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1100" s="12"/>
-      <c r="D1100" s="7"/>
+      <c r="C1100" s="13"/>
+      <c r="D1100" s="8"/>
     </row>
     <row r="1101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1101" s="12"/>
-      <c r="D1101" s="7"/>
+      <c r="C1101" s="13"/>
+      <c r="D1101" s="8"/>
     </row>
     <row r="1102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1102" s="12"/>
-      <c r="D1102" s="7"/>
+      <c r="C1102" s="13"/>
+      <c r="D1102" s="8"/>
     </row>
     <row r="1103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C1103" s="12"/>
-      <c r="D1103" s="7"/>
+      <c r="C1103" s="13"/>
+      <c r="D1103" s="8"/>
     </row>
     <row r="1047006" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1047007" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/crown.xlsx
+++ b/crown.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="297">
   <si>
     <t xml:space="preserve">Author1</t>
   </si>
@@ -64,6 +64,18 @@
     <t xml:space="preserve">Corporate type</t>
   </si>
   <si>
+    <t xml:space="preserve">RepositoryLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepositoryAddress</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepositoryLink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RepositoryLinkName</t>
+  </si>
+  <si>
     <t xml:space="preserve">CR_1</t>
   </si>
   <si>
@@ -104,6 +116,18 @@
   </si>
   <si>
     <t xml:space="preserve">HostInstitution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link name</t>
   </si>
   <si>
     <t xml:space="preserve">CR_1_A-H</t>
@@ -1207,10 +1231,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1048576"/>
+  <dimension ref="A1:AD1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="O1" colorId="64" zoomScale="71" zoomScaleNormal="71" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z2" activeCellId="0" sqref="Z2"/>
+      <selection pane="topLeft" activeCell="AA2" activeCellId="0" sqref="AA2:AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.00390625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1263,1484 +1287,1513 @@
       <c r="U1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="W1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="X1" s="5" t="s">
+      <c r="X1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="4" t="s">
         <v>13</v>
+      </c>
+      <c r="AA1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AB1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8"/>
       <c r="M2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="U2" s="1" t="n">
         <v>12345678</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>30</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="9"/>
       <c r="B3" s="10" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D3" s="8"/>
+      <c r="AA3" s="0"/>
+      <c r="AB3" s="0"/>
+      <c r="AC3" s="0"/>
+      <c r="AD3" s="0"/>
     </row>
     <row r="4" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C4" s="11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="E4" s="12"/>
     </row>
     <row r="5" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="13"/>
       <c r="D5" s="11" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E6" s="11" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E7" s="11" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E8" s="11" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E9" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E10" s="11" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E11" s="11" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E12" s="11" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="11" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E14" s="11" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E15" s="11" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C16" s="13"/>
       <c r="D16" s="11" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D17" s="11" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E18" s="11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E19" s="11" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E20" s="11" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E21" s="11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E22" s="11" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E23" s="11" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E24" s="11" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E25" s="11" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C26" s="1"/>
       <c r="D26" s="11" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E27" s="11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E28" s="11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C29" s="13"/>
       <c r="D29" s="11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D30" s="11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E31" s="11" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E32" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="33" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E33" s="11" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E34" s="11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E35" s="11" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E36" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E37" s="11" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E38" s="11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E39" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F39" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="40" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E40" s="11" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E41" s="11" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E42" s="11" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E43" s="11" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E44" s="11" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E45" s="11" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E46" s="11" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E47" s="11" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E48" s="11" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E49" s="11" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E50" s="11" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E51" s="11" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E52" s="11" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E53" s="11" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E54" s="11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E55" s="11" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E56" s="11" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E57" s="11" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E58" s="11" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E59" s="11" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E60" s="11" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="61" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E61" s="11" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E62" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E63" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E64" s="11" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E65" s="11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E66" s="11" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E67" s="11" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E68" s="11" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="F68" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="69" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E69" s="11" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="F69" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="70" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E70" s="11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="F70" s="8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D71" s="12" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="F71" s="8"/>
     </row>
     <row r="72" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E72" s="11" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F72" s="8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
       <c r="E73" s="11" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="F73" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="11" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="11" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C76" s="15"/>
       <c r="D76" s="12" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E76" s="14" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C77" s="16"/>
       <c r="D77" s="7"/>
       <c r="E77" s="11" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C78" s="16"/>
       <c r="D78" s="7"/>
       <c r="E78" s="11" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C79" s="16"/>
       <c r="D79" s="7"/>
       <c r="E79" s="11" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="F79" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C80" s="16"/>
       <c r="D80" s="7"/>
       <c r="E80" s="11" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C81" s="16"/>
       <c r="D81" s="7"/>
       <c r="E81" s="11" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C82" s="16"/>
       <c r="D82" s="7"/>
       <c r="E82" s="11" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C83" s="16"/>
       <c r="D83" s="7"/>
       <c r="E83" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C84" s="16"/>
       <c r="D84" s="7"/>
       <c r="E84" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F84" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C85" s="16"/>
       <c r="D85" s="7"/>
       <c r="E85" s="11" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C86" s="16"/>
       <c r="D86" s="7"/>
       <c r="E86" s="11" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="F86" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C87" s="16"/>
       <c r="D87" s="7"/>
       <c r="E87" s="11" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C88" s="16"/>
       <c r="D88" s="7"/>
       <c r="E88" s="11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="F88" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C89" s="16"/>
       <c r="D89" s="7"/>
       <c r="E89" s="11" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C90" s="16"/>
       <c r="D90" s="7"/>
       <c r="E90" s="11" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F90" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C91" s="16"/>
       <c r="D91" s="7"/>
       <c r="E91" s="11" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="F91" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C92" s="16"/>
       <c r="D92" s="7"/>
       <c r="E92" s="11" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C93" s="16"/>
       <c r="D93" s="7"/>
       <c r="E93" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F93" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C94" s="16"/>
       <c r="D94" s="7"/>
       <c r="E94" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F94" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C95" s="16"/>
       <c r="D95" s="7"/>
       <c r="E95" s="11" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="F95" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C96" s="16"/>
       <c r="D96" s="7"/>
       <c r="E96" s="11" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="F96" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C97" s="16"/>
       <c r="D97" s="7"/>
       <c r="E97" s="11" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="F97" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C98" s="16"/>
       <c r="D98" s="7"/>
       <c r="E98" s="11" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C99" s="16"/>
       <c r="D99" s="7"/>
       <c r="E99" s="11" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C100" s="16"/>
       <c r="D100" s="7"/>
       <c r="E100" s="11" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C101" s="16"/>
       <c r="D101" s="7"/>
       <c r="E101" s="11" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C102" s="16"/>
       <c r="D102" s="7"/>
       <c r="E102" s="11" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C103" s="16"/>
       <c r="D103" s="7"/>
       <c r="E103" s="11" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C104" s="16"/>
       <c r="D104" s="7"/>
       <c r="E104" s="11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C105" s="16"/>
       <c r="D105" s="7"/>
       <c r="E105" s="11" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C106" s="16"/>
       <c r="D106" s="7"/>
       <c r="E106" s="11" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C107" s="16"/>
       <c r="D107" s="7"/>
       <c r="E107" s="11" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C108" s="16"/>
       <c r="D108" s="7"/>
       <c r="E108" s="11" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C109" s="16"/>
       <c r="D109" s="7"/>
       <c r="E109" s="11" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C110" s="16"/>
       <c r="D110" s="7"/>
       <c r="E110" s="11" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C111" s="16"/>
       <c r="D111" s="7"/>
       <c r="E111" s="11" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C112" s="16"/>
       <c r="D112" s="7"/>
       <c r="E112" s="11" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C113" s="16"/>
       <c r="D113" s="7"/>
       <c r="E113" s="11" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C114" s="16"/>
       <c r="D114" s="7"/>
       <c r="E114" s="11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C115" s="16"/>
       <c r="D115" s="7"/>
       <c r="E115" s="11" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C116" s="16"/>
       <c r="D116" s="7"/>
       <c r="E116" s="11" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C117" s="16"/>
       <c r="D117" s="7"/>
       <c r="E117" s="11" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C118" s="16"/>
       <c r="D118" s="7"/>
       <c r="E118" s="11" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C119" s="16"/>
       <c r="D119" s="7"/>
       <c r="E119" s="11" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C120" s="16"/>
       <c r="D120" s="7"/>
       <c r="E120" s="11" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C121" s="2"/>
       <c r="D121" s="11" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C122" s="2"/>
       <c r="D122" s="11" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E122" s="14" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E123" s="11" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E124" s="11" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E125" s="11" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="126" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E126" s="11" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="127" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E127" s="11" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E128" s="11" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="129" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E129" s="11" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="130" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E130" s="11" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E131" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="F131" s="8" t="s">
         <v>183</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="132" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E132" s="11" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E133" s="11" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="134" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E134" s="11" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="F134" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="135" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E135" s="11" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="136" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E136" s="11" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E137" s="11" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E138" s="11" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="139" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E139" s="11" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="F139" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="140" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E140" s="11" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="141" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E141" s="11" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="142" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E142" s="11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="143" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E143" s="11" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="F143" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E144" s="11" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="145" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D145" s="11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="E145" s="17" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E146" s="11" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="147" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E147" s="11" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F147" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="148" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E148" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="149" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E149" s="11" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="F149" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="150" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E150" s="11" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="F150" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="151" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E151" s="11" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="152" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E152" s="11" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="F152" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="153" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E153" s="11" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="154" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E154" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F154" s="8" t="s">
         <v>209</v>
-      </c>
-      <c r="F154" s="8" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="155" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E155" s="11" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="156" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E156" s="11" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="F156" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="157" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E157" s="11" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="F157" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="158" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E158" s="11" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="159" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E159" s="11" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="F159" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="160" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E160" s="11" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="161" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E161" s="11" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="F161" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="162" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E162" s="11" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="F162" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="163" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C163" s="2"/>
       <c r="D163" s="13"/>
       <c r="E163" s="11" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="F163" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="164" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C164" s="2"/>
       <c r="D164" s="13"/>
       <c r="E164" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="165" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C165" s="2"/>
       <c r="D165" s="12" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="E165" s="17" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="F165" s="9"/>
     </row>
@@ -2748,50 +2801,50 @@
       <c r="C166" s="15"/>
       <c r="D166" s="7"/>
       <c r="E166" s="11" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="167" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C167" s="15"/>
       <c r="D167" s="7"/>
       <c r="E167" s="11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="F167" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="168" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C168" s="15"/>
       <c r="D168" s="7"/>
       <c r="E168" s="11" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F168" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="169" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C169" s="15"/>
       <c r="D169" s="7"/>
       <c r="E169" s="11" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="F169" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="170" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C170" s="15"/>
       <c r="D170" s="7"/>
       <c r="E170" s="11" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="F170" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="171" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2799,10 +2852,10 @@
       <c r="C171" s="12"/>
       <c r="D171" s="17"/>
       <c r="E171" s="11" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="F171" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="172" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2810,10 +2863,10 @@
       <c r="C172" s="12"/>
       <c r="D172" s="17"/>
       <c r="E172" s="11" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="F172" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="173" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2821,10 +2874,10 @@
       <c r="C173" s="12"/>
       <c r="D173" s="17"/>
       <c r="E173" s="11" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="174" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2832,10 +2885,10 @@
       <c r="C174" s="12"/>
       <c r="D174" s="17"/>
       <c r="E174" s="11" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F174" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="175" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2843,10 +2896,10 @@
       <c r="C175" s="12"/>
       <c r="D175" s="17"/>
       <c r="E175" s="11" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="176" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2854,10 +2907,10 @@
       <c r="C176" s="12"/>
       <c r="D176" s="17"/>
       <c r="E176" s="11" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F176" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="177" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2865,10 +2918,10 @@
       <c r="C177" s="12"/>
       <c r="D177" s="17"/>
       <c r="E177" s="11" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="178" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2876,10 +2929,10 @@
       <c r="C178" s="12"/>
       <c r="D178" s="17"/>
       <c r="E178" s="11" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F178" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="179" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2887,10 +2940,10 @@
       <c r="C179" s="12"/>
       <c r="D179" s="17"/>
       <c r="E179" s="11" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F179" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="180" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2898,10 +2951,10 @@
       <c r="C180" s="12"/>
       <c r="D180" s="17"/>
       <c r="E180" s="11" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F180" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="181" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2909,10 +2962,10 @@
       <c r="C181" s="12"/>
       <c r="D181" s="17"/>
       <c r="E181" s="11" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F181" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="182" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2920,10 +2973,10 @@
       <c r="C182" s="12"/>
       <c r="D182" s="17"/>
       <c r="E182" s="11" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F182" s="8" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="183" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2931,10 +2984,10 @@
       <c r="C183" s="12"/>
       <c r="D183" s="17"/>
       <c r="E183" s="11" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F183" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="184" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2942,20 +2995,20 @@
       <c r="C184" s="12"/>
       <c r="D184" s="17"/>
       <c r="E184" s="11" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F184" s="8" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="185" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B185" s="10"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E185" s="14" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F185" s="18"/>
     </row>
@@ -2964,10 +3017,10 @@
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="F186" s="8" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="187" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2975,10 +3028,10 @@
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
       <c r="E187" s="11" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F187" s="8" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="188" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2986,19 +3039,19 @@
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
       <c r="E188" s="11" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="F188" s="8" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="189" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B189" s="10"/>
       <c r="C189" s="11" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="E189" s="10"/>
     </row>
@@ -3006,10 +3059,10 @@
       <c r="B190" s="10"/>
       <c r="C190" s="11"/>
       <c r="D190" s="11" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="E190" s="14" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="191" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3017,10 +3070,10 @@
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
       <c r="E191" s="11" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="F191" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="192" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3028,30 +3081,30 @@
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
       <c r="E192" s="11" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="F192" s="8" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="193" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B193" s="10"/>
       <c r="C193" s="10"/>
       <c r="D193" s="11" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="E193" s="14" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="194" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B194" s="10"/>
       <c r="C194" s="10"/>
       <c r="D194" s="11" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="E194" s="14" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="195" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3059,10 +3112,10 @@
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
       <c r="E195" s="11" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="196" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3070,10 +3123,10 @@
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
       <c r="E196" s="11" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F196" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="197" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3081,10 +3134,10 @@
       <c r="C197" s="10"/>
       <c r="D197" s="10"/>
       <c r="E197" s="11" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="198" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3092,10 +3145,10 @@
       <c r="C198" s="10"/>
       <c r="D198" s="10"/>
       <c r="E198" s="11" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="F198" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="199" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3103,10 +3156,10 @@
       <c r="C199" s="10"/>
       <c r="D199" s="10"/>
       <c r="E199" s="11" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="200" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3114,10 +3167,10 @@
       <c r="C200" s="10"/>
       <c r="D200" s="10"/>
       <c r="E200" s="11" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="F200" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="201" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3125,10 +3178,10 @@
       <c r="C201" s="10"/>
       <c r="D201" s="10"/>
       <c r="E201" s="11" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="F201" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="202" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3136,30 +3189,30 @@
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
       <c r="E202" s="11" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="F202" s="8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="203" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B203" s="10"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="E203" s="14" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B204" s="10"/>
       <c r="C204" s="10"/>
       <c r="D204" s="11" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="E204" s="14" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="205" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3167,10 +3220,10 @@
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
       <c r="E205" s="11" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F205" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3178,10 +3231,10 @@
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
       <c r="E206" s="11" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="F206" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3189,10 +3242,10 @@
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
       <c r="E207" s="11" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F207" s="8" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3200,10 +3253,10 @@
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
       <c r="E208" s="11" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F208" s="8" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="G208" s="8"/>
     </row>
@@ -3212,10 +3265,10 @@
       <c r="C209" s="10"/>
       <c r="D209" s="10"/>
       <c r="E209" s="11" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F209" s="14" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G209" s="8"/>
     </row>
@@ -3225,10 +3278,10 @@
       <c r="D210" s="10"/>
       <c r="E210" s="8"/>
       <c r="F210" s="11" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="G210" s="14" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="H210" s="10"/>
       <c r="I210" s="10"/>
@@ -3236,10 +3289,10 @@
     </row>
     <row r="211" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F211" s="11" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="G211" s="14" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="H211" s="10"/>
       <c r="I211" s="10"/>
@@ -3247,35 +3300,35 @@
     </row>
     <row r="212" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F212" s="11" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="G212" s="14" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="H212" s="10"/>
       <c r="I212" s="10"/>
       <c r="J212" s="10"/>
     </row>
-    <row r="213" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
       <c r="F213" s="11" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="G213" s="14" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="H213" s="10"/>
       <c r="I213" s="10"/>
       <c r="J213" s="10"/>
     </row>
-    <row r="214" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C214" s="1"/>
-      <c r="D214" s="1"/>
+    <row r="214" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="F214" s="10"/>
       <c r="G214" s="11" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="H214" s="14" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="I214" s="10"/>
       <c r="J214" s="10"/>
@@ -3284,10 +3337,10 @@
       <c r="F215" s="10"/>
       <c r="G215" s="10"/>
       <c r="H215" s="11" t="s">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="I215" s="14" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="J215" s="10"/>
     </row>
@@ -3319,13 +3372,13 @@
       <c r="E220" s="13"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
       <c r="E221" s="13"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C222" s="1"/>
-      <c r="D222" s="1"/>
+    <row r="222" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="E222" s="13"/>
       <c r="F222" s="8"/>
     </row>
@@ -3883,7 +3936,9 @@
       <c r="E370" s="13"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" s="1" customFormat="true" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C371" s="1"/>
+      <c r="D371" s="1"/>
       <c r="E371" s="13"/>
       <c r="F371" s="8"/>
     </row>
